--- a/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
+++ b/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lazarus\Documents\GitHub\Voodoo\_WIP\Tobias\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12885"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="146">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -459,12 +454,15 @@
   </si>
   <si>
     <t>So., 12.08.2018</t>
+  </si>
+  <si>
+    <t>Level Design, Recherche</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
@@ -1048,7 +1046,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1058,8 +1056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1584,15 +1582,23 @@
       <c r="A29" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
+      <c r="B29" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C29" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="D29" s="14">
+        <v>1.25</v>
+      </c>
       <c r="E29" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
+      <c r="G29" s="12" t="s">
+        <v>145</v>
+      </c>
       <c r="H29" s="12"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1649,7 +1655,7 @@
       </c>
       <c r="E33" s="22">
         <f>SUM(E26:E32)</f>
-        <v>19.75</v>
+        <v>26.5</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -1664,7 +1670,7 @@
       </c>
       <c r="E34" s="23">
         <f>SUM(E13+E23+E33)</f>
-        <v>56.333333333333336</v>
+        <v>63.083333333333336</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -1825,7 +1831,7 @@
       </c>
       <c r="E44" s="23">
         <f>SUM(E13+E23+E33+E43)</f>
-        <v>56.333333333333336</v>
+        <v>63.083333333333336</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -1986,7 +1992,7 @@
       </c>
       <c r="E54" s="23">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>56.333333333333336</v>
+        <v>63.083333333333336</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -2147,7 +2153,7 @@
       </c>
       <c r="E64" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>56.333333333333336</v>
+        <v>63.083333333333336</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -2308,7 +2314,7 @@
       </c>
       <c r="E74" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>56.333333333333336</v>
+        <v>63.083333333333336</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -2469,7 +2475,7 @@
       </c>
       <c r="E84" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>56.333333333333336</v>
+        <v>63.083333333333336</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -2630,7 +2636,7 @@
       </c>
       <c r="E94" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>56.333333333333336</v>
+        <v>63.083333333333336</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -2791,7 +2797,7 @@
       </c>
       <c r="E104" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>56.333333333333336</v>
+        <v>63.083333333333336</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -2952,7 +2958,7 @@
       </c>
       <c r="E114" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>56.333333333333336</v>
+        <v>63.083333333333336</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3113,7 +3119,7 @@
       </c>
       <c r="E124" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>56.333333333333336</v>
+        <v>63.083333333333336</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3274,7 +3280,7 @@
       </c>
       <c r="E134" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>56.333333333333336</v>
+        <v>63.083333333333336</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3435,7 +3441,7 @@
       </c>
       <c r="E144" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>56.333333333333336</v>
+        <v>63.083333333333336</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3596,7 +3602,7 @@
       </c>
       <c r="E154" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>56.333333333333336</v>
+        <v>63.083333333333336</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3756,7 +3762,7 @@
       </c>
       <c r="E164" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>56.333333333333336</v>
+        <v>63.083333333333336</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -3917,7 +3923,7 @@
       </c>
       <c r="E174" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>56.333333333333336</v>
+        <v>63.083333333333336</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4078,7 +4084,7 @@
       </c>
       <c r="E184" s="28">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>56.333333333333336</v>
+        <v>63.083333333333336</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
+++ b/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="147">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -457,6 +457,9 @@
   </si>
   <si>
     <t>Level Design, Recherche</t>
+  </si>
+  <si>
+    <t>Dokumentation Mechaniken, Level Design</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1049,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1056,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1702,19 +1705,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="24"/>
+      <c r="B36" s="13">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="C36" s="13">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="D36" s="24">
+        <v>2</v>
+      </c>
       <c r="E36" s="9">
         <f>(B36-C36)*-24-D36</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
+      <c r="G36" s="12" t="s">
+        <v>146</v>
+      </c>
       <c r="H36" s="12"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1816,7 +1827,7 @@
       </c>
       <c r="E43" s="22">
         <f>SUM(E36:E42)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -1831,7 +1842,7 @@
       </c>
       <c r="E44" s="23">
         <f>SUM(E13+E23+E33+E43)</f>
-        <v>63.083333333333336</v>
+        <v>69.083333333333343</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -1992,7 +2003,7 @@
       </c>
       <c r="E54" s="23">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>63.083333333333336</v>
+        <v>69.083333333333343</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -2153,7 +2164,7 @@
       </c>
       <c r="E64" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>63.083333333333336</v>
+        <v>69.083333333333343</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -2314,7 +2325,7 @@
       </c>
       <c r="E74" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>63.083333333333336</v>
+        <v>69.083333333333343</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -2475,7 +2486,7 @@
       </c>
       <c r="E84" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>63.083333333333336</v>
+        <v>69.083333333333343</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -2636,7 +2647,7 @@
       </c>
       <c r="E94" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>63.083333333333336</v>
+        <v>69.083333333333343</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -2797,7 +2808,7 @@
       </c>
       <c r="E104" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>63.083333333333336</v>
+        <v>69.083333333333343</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -2958,7 +2969,7 @@
       </c>
       <c r="E114" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>63.083333333333336</v>
+        <v>69.083333333333343</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3119,7 +3130,7 @@
       </c>
       <c r="E124" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>63.083333333333336</v>
+        <v>69.083333333333343</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3280,7 +3291,7 @@
       </c>
       <c r="E134" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>63.083333333333336</v>
+        <v>69.083333333333343</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3441,7 +3452,7 @@
       </c>
       <c r="E144" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>63.083333333333336</v>
+        <v>69.083333333333343</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3602,7 +3613,7 @@
       </c>
       <c r="E154" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>63.083333333333336</v>
+        <v>69.083333333333343</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3762,7 +3773,7 @@
       </c>
       <c r="E164" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>63.083333333333336</v>
+        <v>69.083333333333343</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -3923,7 +3934,7 @@
       </c>
       <c r="E174" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>63.083333333333336</v>
+        <v>69.083333333333343</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4084,7 +4095,7 @@
       </c>
       <c r="E184" s="28">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>63.083333333333336</v>
+        <v>69.083333333333343</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
+++ b/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="148">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -460,6 +460,10 @@
   </si>
   <si>
     <t>Dokumentation Mechaniken, Level Design</t>
+  </si>
+  <si>
+    <t>Whitebox für Level 1;
+Level Design mit Artjom besprochen</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1053,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1059,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1874,19 +1878,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="24"/>
+      <c r="B46" s="13">
+        <v>0.40625</v>
+      </c>
+      <c r="C46" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D46" s="24">
+        <v>1.5</v>
+      </c>
       <c r="E46" s="9">
         <f>(B46-C46)*-24-D46</f>
-        <v>0</v>
+        <v>5.7500000000000009</v>
       </c>
       <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
+      <c r="G46" s="12" t="s">
+        <v>147</v>
+      </c>
       <c r="H46" s="12"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1988,7 +2000,7 @@
       </c>
       <c r="E53" s="22">
         <f>SUM(E46:E52)</f>
-        <v>0</v>
+        <v>5.7500000000000009</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -2003,7 +2015,7 @@
       </c>
       <c r="E54" s="23">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>69.083333333333343</v>
+        <v>74.833333333333343</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -2164,7 +2176,7 @@
       </c>
       <c r="E64" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>69.083333333333343</v>
+        <v>74.833333333333343</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -2325,7 +2337,7 @@
       </c>
       <c r="E74" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>69.083333333333343</v>
+        <v>74.833333333333343</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -2486,7 +2498,7 @@
       </c>
       <c r="E84" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>69.083333333333343</v>
+        <v>74.833333333333343</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -2647,7 +2659,7 @@
       </c>
       <c r="E94" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>69.083333333333343</v>
+        <v>74.833333333333343</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -2808,7 +2820,7 @@
       </c>
       <c r="E104" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>69.083333333333343</v>
+        <v>74.833333333333343</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -2969,7 +2981,7 @@
       </c>
       <c r="E114" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>69.083333333333343</v>
+        <v>74.833333333333343</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3130,7 +3142,7 @@
       </c>
       <c r="E124" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>69.083333333333343</v>
+        <v>74.833333333333343</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3291,7 +3303,7 @@
       </c>
       <c r="E134" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>69.083333333333343</v>
+        <v>74.833333333333343</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3452,7 +3464,7 @@
       </c>
       <c r="E144" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>69.083333333333343</v>
+        <v>74.833333333333343</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3613,7 +3625,7 @@
       </c>
       <c r="E154" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>69.083333333333343</v>
+        <v>74.833333333333343</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3773,7 +3785,7 @@
       </c>
       <c r="E164" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>69.083333333333343</v>
+        <v>74.833333333333343</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -3934,7 +3946,7 @@
       </c>
       <c r="E174" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>69.083333333333343</v>
+        <v>74.833333333333343</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4095,7 +4107,7 @@
       </c>
       <c r="E184" s="28">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>69.083333333333343</v>
+        <v>74.833333333333343</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
+++ b/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="149">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -464,6 +464,9 @@
   <si>
     <t>Whitebox für Level 1;
 Level Design mit Artjom besprochen</t>
+  </si>
+  <si>
+    <t>Gedanken der Puppe ausgearbeitet, GDD bearbeitet, Assetliste für Level 1 erstellt</t>
   </si>
 </sst>
 </file>
@@ -1053,7 +1056,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1063,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1901,19 +1904,27 @@
       </c>
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="14"/>
+      <c r="B47" s="13">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="C47" s="13">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="D47" s="14">
+        <v>2</v>
+      </c>
       <c r="E47" s="9">
         <f t="shared" ref="E47:E52" si="4">(B47-C47)*-24-D47</f>
-        <v>0</v>
+        <v>6.0000000000000018</v>
       </c>
       <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
+      <c r="G47" s="12" t="s">
+        <v>148</v>
+      </c>
       <c r="H47" s="12"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2000,7 +2011,7 @@
       </c>
       <c r="E53" s="22">
         <f>SUM(E46:E52)</f>
-        <v>5.7500000000000009</v>
+        <v>11.750000000000004</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -2015,7 +2026,7 @@
       </c>
       <c r="E54" s="23">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>74.833333333333343</v>
+        <v>80.833333333333343</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -2176,7 +2187,7 @@
       </c>
       <c r="E64" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>74.833333333333343</v>
+        <v>80.833333333333343</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -2337,7 +2348,7 @@
       </c>
       <c r="E74" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>74.833333333333343</v>
+        <v>80.833333333333343</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -2498,7 +2509,7 @@
       </c>
       <c r="E84" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>74.833333333333343</v>
+        <v>80.833333333333343</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -2659,7 +2670,7 @@
       </c>
       <c r="E94" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>74.833333333333343</v>
+        <v>80.833333333333343</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -2820,7 +2831,7 @@
       </c>
       <c r="E104" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>74.833333333333343</v>
+        <v>80.833333333333343</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -2981,7 +2992,7 @@
       </c>
       <c r="E114" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>74.833333333333343</v>
+        <v>80.833333333333343</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3142,7 +3153,7 @@
       </c>
       <c r="E124" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>74.833333333333343</v>
+        <v>80.833333333333343</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3303,7 +3314,7 @@
       </c>
       <c r="E134" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>74.833333333333343</v>
+        <v>80.833333333333343</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3464,7 +3475,7 @@
       </c>
       <c r="E144" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>74.833333333333343</v>
+        <v>80.833333333333343</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3625,7 +3636,7 @@
       </c>
       <c r="E154" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>74.833333333333343</v>
+        <v>80.833333333333343</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3785,7 +3796,7 @@
       </c>
       <c r="E164" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>74.833333333333343</v>
+        <v>80.833333333333343</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -3946,7 +3957,7 @@
       </c>
       <c r="E174" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>74.833333333333343</v>
+        <v>80.833333333333343</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4107,7 +4118,7 @@
       </c>
       <c r="E184" s="28">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>74.833333333333343</v>
+        <v>80.833333333333343</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
+++ b/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="150">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -467,6 +467,9 @@
   </si>
   <si>
     <t>Gedanken der Puppe ausgearbeitet, GDD bearbeitet, Assetliste für Level 1 erstellt</t>
+  </si>
+  <si>
+    <t>Gedanken der Puppe, GDD</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1059,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1067,7 +1070,7 @@
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1927,19 +1930,27 @@
       </c>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="14"/>
+      <c r="B48" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C48" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D48" s="14">
+        <v>1</v>
+      </c>
       <c r="E48" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
+      <c r="G48" s="12" t="s">
+        <v>149</v>
+      </c>
       <c r="H48" s="12"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2011,7 +2022,7 @@
       </c>
       <c r="E53" s="22">
         <f>SUM(E46:E52)</f>
-        <v>11.750000000000004</v>
+        <v>17.750000000000004</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -2026,7 +2037,7 @@
       </c>
       <c r="E54" s="23">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>80.833333333333343</v>
+        <v>86.833333333333343</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -2187,7 +2198,7 @@
       </c>
       <c r="E64" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>80.833333333333343</v>
+        <v>86.833333333333343</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -2348,7 +2359,7 @@
       </c>
       <c r="E74" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>80.833333333333343</v>
+        <v>86.833333333333343</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -2509,7 +2520,7 @@
       </c>
       <c r="E84" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>80.833333333333343</v>
+        <v>86.833333333333343</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -2670,7 +2681,7 @@
       </c>
       <c r="E94" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>80.833333333333343</v>
+        <v>86.833333333333343</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -2831,7 +2842,7 @@
       </c>
       <c r="E104" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>80.833333333333343</v>
+        <v>86.833333333333343</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -2992,7 +3003,7 @@
       </c>
       <c r="E114" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>80.833333333333343</v>
+        <v>86.833333333333343</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3153,7 +3164,7 @@
       </c>
       <c r="E124" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>80.833333333333343</v>
+        <v>86.833333333333343</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3314,7 +3325,7 @@
       </c>
       <c r="E134" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>80.833333333333343</v>
+        <v>86.833333333333343</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3475,7 +3486,7 @@
       </c>
       <c r="E144" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>80.833333333333343</v>
+        <v>86.833333333333343</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3636,7 +3647,7 @@
       </c>
       <c r="E154" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>80.833333333333343</v>
+        <v>86.833333333333343</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3796,7 +3807,7 @@
       </c>
       <c r="E164" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>80.833333333333343</v>
+        <v>86.833333333333343</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -3957,7 +3968,7 @@
       </c>
       <c r="E174" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>80.833333333333343</v>
+        <v>86.833333333333343</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4118,7 +4129,7 @@
       </c>
       <c r="E184" s="28">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>80.833333333333343</v>
+        <v>86.833333333333343</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
+++ b/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="151">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -470,6 +470,9 @@
   </si>
   <si>
     <t>Gedanken der Puppe, GDD</t>
+  </si>
+  <si>
+    <t>GDD</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1062,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1069,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1972,15 +1975,23 @@
       <c r="A50" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="14"/>
+      <c r="B50" s="13">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C50" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="D50" s="14">
+        <v>2.5</v>
+      </c>
       <c r="E50" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6.1666666666666661</v>
       </c>
       <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
+      <c r="G50" s="12" t="s">
+        <v>150</v>
+      </c>
       <c r="H50" s="12"/>
     </row>
     <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2022,7 +2033,7 @@
       </c>
       <c r="E53" s="22">
         <f>SUM(E46:E52)</f>
-        <v>17.750000000000004</v>
+        <v>23.916666666666671</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -2037,7 +2048,7 @@
       </c>
       <c r="E54" s="23">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>86.833333333333343</v>
+        <v>93.000000000000014</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -2198,7 +2209,7 @@
       </c>
       <c r="E64" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>86.833333333333343</v>
+        <v>93.000000000000014</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -2359,7 +2370,7 @@
       </c>
       <c r="E74" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>86.833333333333343</v>
+        <v>93.000000000000014</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -2520,7 +2531,7 @@
       </c>
       <c r="E84" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>86.833333333333343</v>
+        <v>93.000000000000014</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -2681,7 +2692,7 @@
       </c>
       <c r="E94" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>86.833333333333343</v>
+        <v>93.000000000000014</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -2842,7 +2853,7 @@
       </c>
       <c r="E104" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>86.833333333333343</v>
+        <v>93.000000000000014</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -3003,7 +3014,7 @@
       </c>
       <c r="E114" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>86.833333333333343</v>
+        <v>93.000000000000014</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3164,7 +3175,7 @@
       </c>
       <c r="E124" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>86.833333333333343</v>
+        <v>93.000000000000014</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3325,7 +3336,7 @@
       </c>
       <c r="E134" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>86.833333333333343</v>
+        <v>93.000000000000014</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3486,7 +3497,7 @@
       </c>
       <c r="E144" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>86.833333333333343</v>
+        <v>93.000000000000014</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3647,7 +3658,7 @@
       </c>
       <c r="E154" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>86.833333333333343</v>
+        <v>93.000000000000014</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3807,7 +3818,7 @@
       </c>
       <c r="E164" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>86.833333333333343</v>
+        <v>93.000000000000014</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -3968,7 +3979,7 @@
       </c>
       <c r="E174" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>86.833333333333343</v>
+        <v>93.000000000000014</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4129,7 +4140,7 @@
       </c>
       <c r="E184" s="28">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>86.833333333333343</v>
+        <v>93.000000000000014</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
+++ b/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="154">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -473,6 +473,15 @@
   </si>
   <si>
     <t>GDD</t>
+  </si>
+  <si>
+    <t>Feiertag</t>
+  </si>
+  <si>
+    <t>Unterricht</t>
+  </si>
+  <si>
+    <t>German Dev Days</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1071,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1072,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2093,7 +2102,9 @@
       </c>
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
+      <c r="H56" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
@@ -2108,7 +2119,9 @@
       </c>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
+      <c r="H57" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
@@ -2123,7 +2136,9 @@
       </c>
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
+      <c r="H58" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
@@ -2138,7 +2153,9 @@
       </c>
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
+      <c r="H59" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
@@ -2153,7 +2170,9 @@
       </c>
       <c r="F60" s="12"/>
       <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
+      <c r="H60" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
@@ -2168,7 +2187,9 @@
       </c>
       <c r="F61" s="12"/>
       <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
+      <c r="H61" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
@@ -2254,18 +2275,26 @@
       </c>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
+      <c r="H66" s="12" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="14"/>
+      <c r="B67" s="13">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C67" s="13">
+        <v>0.6875</v>
+      </c>
+      <c r="D67" s="14">
+        <v>1</v>
+      </c>
       <c r="E67" s="9">
         <f t="shared" ref="E67:E72" si="6">(B67-C67)*-24-D67</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F67" s="12"/>
       <c r="G67" s="12"/>
@@ -2282,7 +2311,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F68" s="12"/>
+      <c r="F68" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="G68" s="12"/>
       <c r="H68" s="12"/>
     </row>
@@ -2297,7 +2328,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F69" s="12"/>
+      <c r="F69" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="G69" s="12"/>
       <c r="H69" s="12"/>
     </row>
@@ -2355,7 +2388,7 @@
       </c>
       <c r="E73" s="28">
         <f>SUM(E66:E72)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -2370,7 +2403,7 @@
       </c>
       <c r="E74" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>93.000000000000014</v>
+        <v>99.000000000000014</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -2531,7 +2564,7 @@
       </c>
       <c r="E84" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>93.000000000000014</v>
+        <v>99.000000000000014</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -2692,7 +2725,7 @@
       </c>
       <c r="E94" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>93.000000000000014</v>
+        <v>99.000000000000014</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -2853,7 +2886,7 @@
       </c>
       <c r="E104" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>93.000000000000014</v>
+        <v>99.000000000000014</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -3014,7 +3047,7 @@
       </c>
       <c r="E114" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>93.000000000000014</v>
+        <v>99.000000000000014</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3175,7 +3208,7 @@
       </c>
       <c r="E124" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>93.000000000000014</v>
+        <v>99.000000000000014</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3336,7 +3369,7 @@
       </c>
       <c r="E134" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>93.000000000000014</v>
+        <v>99.000000000000014</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3497,7 +3530,7 @@
       </c>
       <c r="E144" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>93.000000000000014</v>
+        <v>99.000000000000014</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3658,7 +3691,7 @@
       </c>
       <c r="E154" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>93.000000000000014</v>
+        <v>99.000000000000014</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3818,7 +3851,7 @@
       </c>
       <c r="E164" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>93.000000000000014</v>
+        <v>99.000000000000014</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -3979,7 +4012,7 @@
       </c>
       <c r="E174" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>93.000000000000014</v>
+        <v>99.000000000000014</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4140,7 +4173,7 @@
       </c>
       <c r="E184" s="28">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>93.000000000000014</v>
+        <v>99.000000000000014</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
+++ b/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="157">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -482,6 +482,15 @@
   </si>
   <si>
     <t>German Dev Days</t>
+  </si>
+  <si>
+    <t>Gate</t>
+  </si>
+  <si>
+    <t>Meeting, Story</t>
+  </si>
+  <si>
+    <t>Story, Assetliste</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1080,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1081,8 +1090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1763,7 +1772,9 @@
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
+      <c r="H37" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
@@ -1778,7 +1789,9 @@
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
+      <c r="H38" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
@@ -1793,7 +1806,9 @@
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
+      <c r="H39" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
@@ -1808,7 +1823,9 @@
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
+      <c r="H40" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
@@ -1823,7 +1840,9 @@
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
+      <c r="H41" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
@@ -2338,15 +2357,23 @@
       <c r="A70" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="14"/>
+      <c r="B70" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C70" s="13">
+        <v>0.6875</v>
+      </c>
+      <c r="D70" s="14">
+        <v>1</v>
+      </c>
       <c r="E70" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
+      <c r="G70" s="12" t="s">
+        <v>154</v>
+      </c>
       <c r="H70" s="12"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2388,7 +2415,7 @@
       </c>
       <c r="E73" s="28">
         <f>SUM(E66:E72)</f>
-        <v>6</v>
+        <v>11.5</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -2403,7 +2430,7 @@
       </c>
       <c r="E74" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>99.000000000000014</v>
+        <v>104.50000000000001</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -2448,7 +2475,9 @@
       </c>
       <c r="F76" s="12"/>
       <c r="G76" s="12"/>
-      <c r="H76" s="12"/>
+      <c r="H76" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
@@ -2463,7 +2492,9 @@
       </c>
       <c r="F77" s="12"/>
       <c r="G77" s="12"/>
-      <c r="H77" s="12"/>
+      <c r="H77" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="78" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
@@ -2478,7 +2509,9 @@
       </c>
       <c r="F78" s="12"/>
       <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
+      <c r="H78" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
@@ -2493,7 +2526,9 @@
       </c>
       <c r="F79" s="12"/>
       <c r="G79" s="12"/>
-      <c r="H79" s="12"/>
+      <c r="H79" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="80" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
@@ -2508,7 +2543,9 @@
       </c>
       <c r="F80" s="12"/>
       <c r="G80" s="12"/>
-      <c r="H80" s="12"/>
+      <c r="H80" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="81" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
@@ -2523,7 +2560,9 @@
       </c>
       <c r="F81" s="12"/>
       <c r="G81" s="12"/>
-      <c r="H81" s="12"/>
+      <c r="H81" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="82" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
@@ -2564,7 +2603,7 @@
       </c>
       <c r="E84" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>99.000000000000014</v>
+        <v>104.50000000000001</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -2600,30 +2639,46 @@
       <c r="A86" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="24"/>
+      <c r="B86" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C86" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D86" s="24">
+        <v>2</v>
+      </c>
       <c r="E86" s="9">
         <f>(B86-C86)*-24-D86</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
+      <c r="G86" s="12" t="s">
+        <v>155</v>
+      </c>
       <c r="H86" s="12"/>
     </row>
     <row r="87" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="14"/>
+      <c r="B87" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C87" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D87" s="14">
+        <v>1.5</v>
+      </c>
       <c r="E87" s="9">
         <f t="shared" ref="E87:E92" si="8">(B87-C87)*-24-D87</f>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
+      <c r="G87" s="12" t="s">
+        <v>156</v>
+      </c>
       <c r="H87" s="12"/>
     </row>
     <row r="88" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2710,7 +2765,7 @@
       </c>
       <c r="E93" s="28">
         <f>SUM(E86:E92)</f>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -2725,7 +2780,7 @@
       </c>
       <c r="E94" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>99.000000000000014</v>
+        <v>115.00000000000001</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -2886,7 +2941,7 @@
       </c>
       <c r="E104" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>99.000000000000014</v>
+        <v>115.00000000000001</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -3047,7 +3102,7 @@
       </c>
       <c r="E114" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>99.000000000000014</v>
+        <v>115.00000000000001</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3208,7 +3263,7 @@
       </c>
       <c r="E124" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>99.000000000000014</v>
+        <v>115.00000000000001</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3369,7 +3424,7 @@
       </c>
       <c r="E134" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>99.000000000000014</v>
+        <v>115.00000000000001</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3530,7 +3585,7 @@
       </c>
       <c r="E144" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>99.000000000000014</v>
+        <v>115.00000000000001</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3691,7 +3746,7 @@
       </c>
       <c r="E154" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>99.000000000000014</v>
+        <v>115.00000000000001</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3851,7 +3906,7 @@
       </c>
       <c r="E164" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>99.000000000000014</v>
+        <v>115.00000000000001</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4012,7 +4067,7 @@
       </c>
       <c r="E174" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>99.000000000000014</v>
+        <v>115.00000000000001</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4173,7 +4228,7 @@
       </c>
       <c r="E184" s="28">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>99.000000000000014</v>
+        <v>115.00000000000001</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
+++ b/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="158">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -491,6 +491,9 @@
   </si>
   <si>
     <t>Story, Assetliste</t>
+  </si>
+  <si>
+    <t>Story</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1083,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1091,7 +1094,7 @@
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+      <selection activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2685,15 +2688,23 @@
       <c r="A88" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B88" s="13"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="14"/>
+      <c r="B88" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C88" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D88" s="14">
+        <v>1</v>
+      </c>
       <c r="E88" s="9">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F88" s="12"/>
-      <c r="G88" s="12"/>
+      <c r="G88" s="12" t="s">
+        <v>157</v>
+      </c>
       <c r="H88" s="12"/>
     </row>
     <row r="89" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2765,7 +2776,7 @@
       </c>
       <c r="E93" s="28">
         <f>SUM(E86:E92)</f>
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -2780,7 +2791,7 @@
       </c>
       <c r="E94" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>115.00000000000001</v>
+        <v>121.00000000000001</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -2941,7 +2952,7 @@
       </c>
       <c r="E104" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>115.00000000000001</v>
+        <v>121.00000000000001</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -3102,7 +3113,7 @@
       </c>
       <c r="E114" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>115.00000000000001</v>
+        <v>121.00000000000001</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3263,7 +3274,7 @@
       </c>
       <c r="E124" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>115.00000000000001</v>
+        <v>121.00000000000001</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3424,7 +3435,7 @@
       </c>
       <c r="E134" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>115.00000000000001</v>
+        <v>121.00000000000001</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3585,7 +3596,7 @@
       </c>
       <c r="E144" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>115.00000000000001</v>
+        <v>121.00000000000001</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3746,7 +3757,7 @@
       </c>
       <c r="E154" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>115.00000000000001</v>
+        <v>121.00000000000001</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3906,7 +3917,7 @@
       </c>
       <c r="E164" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>115.00000000000001</v>
+        <v>121.00000000000001</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4067,7 +4078,7 @@
       </c>
       <c r="E174" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>115.00000000000001</v>
+        <v>121.00000000000001</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4228,7 +4239,7 @@
       </c>
       <c r="E184" s="28">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>115.00000000000001</v>
+        <v>121.00000000000001</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
+++ b/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="159">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -494,6 +494,9 @@
   </si>
   <si>
     <t>Story</t>
+  </si>
+  <si>
+    <t>Story, Belichtung</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1086,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1094,7 +1097,7 @@
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="G89" sqref="G89"/>
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2711,15 +2714,23 @@
       <c r="A89" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B89" s="13"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="14"/>
+      <c r="B89" s="13">
+        <v>0.40625</v>
+      </c>
+      <c r="C89" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D89" s="14">
+        <v>1.5</v>
+      </c>
       <c r="E89" s="9">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5.7500000000000009</v>
       </c>
       <c r="F89" s="12"/>
-      <c r="G89" s="12"/>
+      <c r="G89" s="12" t="s">
+        <v>158</v>
+      </c>
       <c r="H89" s="12"/>
     </row>
     <row r="90" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2776,7 +2787,7 @@
       </c>
       <c r="E93" s="28">
         <f>SUM(E86:E92)</f>
-        <v>16.5</v>
+        <v>22.25</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -2791,7 +2802,7 @@
       </c>
       <c r="E94" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>121.00000000000001</v>
+        <v>126.75000000000001</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -2952,7 +2963,7 @@
       </c>
       <c r="E104" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>121.00000000000001</v>
+        <v>126.75000000000001</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -3113,7 +3124,7 @@
       </c>
       <c r="E114" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>121.00000000000001</v>
+        <v>126.75000000000001</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3274,7 +3285,7 @@
       </c>
       <c r="E124" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>121.00000000000001</v>
+        <v>126.75000000000001</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3435,7 +3446,7 @@
       </c>
       <c r="E134" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>121.00000000000001</v>
+        <v>126.75000000000001</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3596,7 +3607,7 @@
       </c>
       <c r="E144" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>121.00000000000001</v>
+        <v>126.75000000000001</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3757,7 +3768,7 @@
       </c>
       <c r="E154" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>121.00000000000001</v>
+        <v>126.75000000000001</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3917,7 +3928,7 @@
       </c>
       <c r="E164" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>121.00000000000001</v>
+        <v>126.75000000000001</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4078,7 +4089,7 @@
       </c>
       <c r="E174" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>121.00000000000001</v>
+        <v>126.75000000000001</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4239,7 +4250,7 @@
       </c>
       <c r="E184" s="28">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>121.00000000000001</v>
+        <v>126.75000000000001</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
+++ b/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="161">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -497,6 +497,12 @@
   </si>
   <si>
     <t>Story, Belichtung</t>
+  </si>
+  <si>
+    <t>Level 2 Entwurf</t>
+  </si>
+  <si>
+    <t>Frei</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1092,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1096,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="H102" sqref="H102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1309,7 +1315,9 @@
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="H11" s="12" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
@@ -1395,7 +1403,9 @@
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="H16" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
@@ -1410,7 +1420,9 @@
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="H17" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
@@ -1446,7 +1458,9 @@
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+      <c r="H19" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
@@ -1461,7 +1475,9 @@
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
+      <c r="H20" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
@@ -1476,7 +1492,9 @@
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+      <c r="H21" s="12" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
@@ -2041,7 +2059,9 @@
       </c>
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
+      <c r="H51" s="12" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
@@ -2395,7 +2415,9 @@
       </c>
       <c r="F71" s="12"/>
       <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
+      <c r="H71" s="12" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="72" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
@@ -2567,7 +2589,7 @@
       <c r="F81" s="12"/>
       <c r="G81" s="12"/>
       <c r="H81" s="12" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2737,15 +2759,23 @@
       <c r="A90" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B90" s="13"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="14"/>
+      <c r="B90" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C90" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D90" s="14">
+        <v>1.5</v>
+      </c>
       <c r="E90" s="9">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
+      <c r="G90" s="12" t="s">
+        <v>158</v>
+      </c>
       <c r="H90" s="12"/>
     </row>
     <row r="91" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2761,7 +2791,9 @@
       </c>
       <c r="F91" s="12"/>
       <c r="G91" s="12"/>
-      <c r="H91" s="12"/>
+      <c r="H91" s="12" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="92" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
@@ -2787,7 +2819,7 @@
       </c>
       <c r="E93" s="28">
         <f>SUM(E86:E92)</f>
-        <v>22.25</v>
+        <v>27.75</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -2802,7 +2834,7 @@
       </c>
       <c r="E94" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>126.75000000000001</v>
+        <v>132.25</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -2847,7 +2879,9 @@
       </c>
       <c r="F96" s="12"/>
       <c r="G96" s="12"/>
-      <c r="H96" s="12"/>
+      <c r="H96" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="97" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
@@ -2862,7 +2896,9 @@
       </c>
       <c r="F97" s="12"/>
       <c r="G97" s="12"/>
-      <c r="H97" s="12"/>
+      <c r="H97" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="98" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
@@ -2877,7 +2913,9 @@
       </c>
       <c r="F98" s="12"/>
       <c r="G98" s="12"/>
-      <c r="H98" s="12"/>
+      <c r="H98" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="99" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
@@ -2892,7 +2930,9 @@
       </c>
       <c r="F99" s="12"/>
       <c r="G99" s="12"/>
-      <c r="H99" s="12"/>
+      <c r="H99" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="100" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
@@ -2907,7 +2947,9 @@
       </c>
       <c r="F100" s="12"/>
       <c r="G100" s="12"/>
-      <c r="H100" s="12"/>
+      <c r="H100" s="12" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="101" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
@@ -2922,7 +2964,9 @@
       </c>
       <c r="F101" s="12"/>
       <c r="G101" s="12"/>
-      <c r="H101" s="12"/>
+      <c r="H101" s="12" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="102" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
@@ -2963,7 +3007,7 @@
       </c>
       <c r="E104" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>126.75000000000001</v>
+        <v>132.25</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -2999,15 +3043,23 @@
       <c r="A106" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B106" s="13"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="24"/>
+      <c r="B106" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C106" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="D106" s="24">
+        <v>1.5</v>
+      </c>
       <c r="E106" s="9">
         <f>(B106-C106)*-24-D106</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="F106" s="12"/>
-      <c r="G106" s="12"/>
+      <c r="G106" s="12" t="s">
+        <v>159</v>
+      </c>
       <c r="H106" s="12"/>
     </row>
     <row r="107" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3109,7 +3161,7 @@
       </c>
       <c r="E113" s="28">
         <f>SUM(E106:E112)</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
@@ -3124,7 +3176,7 @@
       </c>
       <c r="E114" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>126.75000000000001</v>
+        <v>138.75</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3285,7 +3337,7 @@
       </c>
       <c r="E124" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>126.75000000000001</v>
+        <v>138.75</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3446,7 +3498,7 @@
       </c>
       <c r="E134" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>126.75000000000001</v>
+        <v>138.75</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3607,7 +3659,7 @@
       </c>
       <c r="E144" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>126.75000000000001</v>
+        <v>138.75</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3768,7 +3820,7 @@
       </c>
       <c r="E154" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>126.75000000000001</v>
+        <v>138.75</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3928,7 +3980,7 @@
       </c>
       <c r="E164" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>126.75000000000001</v>
+        <v>138.75</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4089,7 +4141,7 @@
       </c>
       <c r="E174" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>126.75000000000001</v>
+        <v>138.75</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4250,7 +4302,7 @@
       </c>
       <c r="E184" s="28">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>126.75000000000001</v>
+        <v>138.75</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
+++ b/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="162">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -503,6 +503,9 @@
   </si>
   <si>
     <t>Frei</t>
+  </si>
+  <si>
+    <t>Prefabs erstellt</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1095,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1102,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="H102" sqref="H102"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3066,15 +3069,23 @@
       <c r="A107" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="14"/>
+      <c r="B107" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="C107" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D107" s="14">
+        <v>1.5</v>
+      </c>
       <c r="E107" s="9">
         <f t="shared" ref="E107:E112" si="10">(B107-C107)*-24-D107</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="F107" s="12"/>
-      <c r="G107" s="12"/>
+      <c r="G107" s="12" t="s">
+        <v>161</v>
+      </c>
       <c r="H107" s="12"/>
     </row>
     <row r="108" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3161,7 +3172,7 @@
       </c>
       <c r="E113" s="28">
         <f>SUM(E106:E112)</f>
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
@@ -3176,7 +3187,7 @@
       </c>
       <c r="E114" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>138.75</v>
+        <v>145.25</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3337,7 +3348,7 @@
       </c>
       <c r="E124" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>138.75</v>
+        <v>145.25</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3498,7 +3509,7 @@
       </c>
       <c r="E134" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>138.75</v>
+        <v>145.25</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3659,7 +3670,7 @@
       </c>
       <c r="E144" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>138.75</v>
+        <v>145.25</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3820,7 +3831,7 @@
       </c>
       <c r="E154" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>138.75</v>
+        <v>145.25</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3980,7 +3991,7 @@
       </c>
       <c r="E164" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>138.75</v>
+        <v>145.25</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4141,7 +4152,7 @@
       </c>
       <c r="E174" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>138.75</v>
+        <v>145.25</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4302,7 +4313,7 @@
       </c>
       <c r="E184" s="28">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>138.75</v>
+        <v>145.25</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
+++ b/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="163">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -506,6 +506,9 @@
   </si>
   <si>
     <t>Prefabs erstellt</t>
+  </si>
+  <si>
+    <t>Level 2 fertiggestellt</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1098,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1105,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3092,15 +3095,23 @@
       <c r="A108" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B108" s="13"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="14"/>
+      <c r="B108" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C108" s="13">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="D108" s="14">
+        <v>1</v>
+      </c>
       <c r="E108" s="9">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>7.3333333333333321</v>
       </c>
       <c r="F108" s="12"/>
-      <c r="G108" s="12"/>
+      <c r="G108" s="12" t="s">
+        <v>162</v>
+      </c>
       <c r="H108" s="12"/>
     </row>
     <row r="109" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3172,7 +3183,7 @@
       </c>
       <c r="E113" s="28">
         <f>SUM(E106:E112)</f>
-        <v>13</v>
+        <v>20.333333333333332</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
@@ -3187,7 +3198,7 @@
       </c>
       <c r="E114" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>145.25</v>
+        <v>152.58333333333334</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3348,7 +3359,7 @@
       </c>
       <c r="E124" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>145.25</v>
+        <v>152.58333333333334</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3509,7 +3520,7 @@
       </c>
       <c r="E134" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>145.25</v>
+        <v>152.58333333333334</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3670,7 +3681,7 @@
       </c>
       <c r="E144" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>145.25</v>
+        <v>152.58333333333334</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3831,7 +3842,7 @@
       </c>
       <c r="E154" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>145.25</v>
+        <v>152.58333333333334</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3991,7 +4002,7 @@
       </c>
       <c r="E164" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>145.25</v>
+        <v>152.58333333333334</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4152,7 +4163,7 @@
       </c>
       <c r="E174" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>145.25</v>
+        <v>152.58333333333334</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4313,7 +4324,7 @@
       </c>
       <c r="E184" s="28">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>145.25</v>
+        <v>152.58333333333334</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
+++ b/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="164">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -509,6 +509,9 @@
   </si>
   <si>
     <t>Level 2 fertiggestellt</t>
+  </si>
+  <si>
+    <t>GDD Update, Level 2 in Unity</t>
   </si>
 </sst>
 </file>
@@ -1098,7 +1101,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1108,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="G103" sqref="G103"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3114,19 +3117,27 @@
       </c>
       <c r="H108" s="12"/>
     </row>
-    <row r="109" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B109" s="13"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="14"/>
+      <c r="B109" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="C109" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D109" s="14">
+        <v>0</v>
+      </c>
       <c r="E109" s="9">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5.0000000000000009</v>
       </c>
       <c r="F109" s="12"/>
-      <c r="G109" s="12"/>
+      <c r="G109" s="12" t="s">
+        <v>163</v>
+      </c>
       <c r="H109" s="12"/>
     </row>
     <row r="110" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3183,7 +3194,7 @@
       </c>
       <c r="E113" s="28">
         <f>SUM(E106:E112)</f>
-        <v>20.333333333333332</v>
+        <v>25.333333333333332</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
@@ -3198,7 +3209,7 @@
       </c>
       <c r="E114" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>152.58333333333334</v>
+        <v>157.58333333333334</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3359,7 +3370,7 @@
       </c>
       <c r="E124" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>152.58333333333334</v>
+        <v>157.58333333333334</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3520,7 +3531,7 @@
       </c>
       <c r="E134" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>152.58333333333334</v>
+        <v>157.58333333333334</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3681,7 +3692,7 @@
       </c>
       <c r="E144" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>152.58333333333334</v>
+        <v>157.58333333333334</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3842,7 +3853,7 @@
       </c>
       <c r="E154" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>152.58333333333334</v>
+        <v>157.58333333333334</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -4002,7 +4013,7 @@
       </c>
       <c r="E164" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>152.58333333333334</v>
+        <v>157.58333333333334</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4163,7 +4174,7 @@
       </c>
       <c r="E174" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>152.58333333333334</v>
+        <v>157.58333333333334</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4324,7 +4335,7 @@
       </c>
       <c r="E184" s="28">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>152.58333333333334</v>
+        <v>157.58333333333334</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
+++ b/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="165">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -512,6 +512,9 @@
   </si>
   <si>
     <t>GDD Update, Level 2 in Unity</t>
+  </si>
+  <si>
+    <t>Level 2 in Unity</t>
   </si>
 </sst>
 </file>
@@ -1112,7 +1115,7 @@
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+      <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3144,15 +3147,23 @@
       <c r="A110" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B110" s="13"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="14"/>
+      <c r="B110" s="13">
+        <v>0.4375</v>
+      </c>
+      <c r="C110" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D110" s="14">
+        <v>1.5</v>
+      </c>
       <c r="E110" s="9">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5.0000000000000009</v>
       </c>
       <c r="F110" s="12"/>
-      <c r="G110" s="12"/>
+      <c r="G110" s="12" t="s">
+        <v>164</v>
+      </c>
       <c r="H110" s="12"/>
     </row>
     <row r="111" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3194,7 +3205,7 @@
       </c>
       <c r="E113" s="28">
         <f>SUM(E106:E112)</f>
-        <v>25.333333333333332</v>
+        <v>30.333333333333332</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
@@ -3209,7 +3220,7 @@
       </c>
       <c r="E114" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>157.58333333333334</v>
+        <v>162.58333333333334</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3370,7 +3381,7 @@
       </c>
       <c r="E124" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>157.58333333333334</v>
+        <v>162.58333333333334</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3531,7 +3542,7 @@
       </c>
       <c r="E134" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>157.58333333333334</v>
+        <v>162.58333333333334</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3692,7 +3703,7 @@
       </c>
       <c r="E144" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>157.58333333333334</v>
+        <v>162.58333333333334</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3853,7 +3864,7 @@
       </c>
       <c r="E154" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>157.58333333333334</v>
+        <v>162.58333333333334</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -4013,7 +4024,7 @@
       </c>
       <c r="E164" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>157.58333333333334</v>
+        <v>162.58333333333334</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4174,7 +4185,7 @@
       </c>
       <c r="E174" s="23">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>157.58333333333334</v>
+        <v>162.58333333333334</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4335,7 +4346,7 @@
       </c>
       <c r="E184" s="28">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>157.58333333333334</v>
+        <v>162.58333333333334</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
+++ b/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
@@ -371,7 +371,7 @@
     <t xml:space="preserve">So., 24.06.2018</t>
   </si>
   <si>
-    <t xml:space="preserve">Prefaps erstellt </t>
+    <t xml:space="preserve">Prefaps erstellt, Level in Unity</t>
   </si>
   <si>
     <t xml:space="preserve">Mo., 25.06.2018</t>
@@ -863,7 +863,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in 20% - Accent1" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -936,7 +936,7 @@
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A90" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G112" activeCellId="0" sqref="G112"/>
+      <selection pane="topLeft" activeCell="J112" activeCellId="0" sqref="J112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -946,7 +946,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="22.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="22.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="10.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3003,7 +3003,7 @@
       <c r="G111" s="11"/>
       <c r="H111" s="11"/>
     </row>
-    <row r="112" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="s">
         <v>115</v>
       </c>
@@ -3011,12 +3011,14 @@
         <v>0.75</v>
       </c>
       <c r="C112" s="16" t="n">
-        <v>0.854166666666667</v>
-      </c>
-      <c r="D112" s="25"/>
+        <v>0.989583333333333</v>
+      </c>
+      <c r="D112" s="25" t="n">
+        <v>1.5</v>
+      </c>
       <c r="E112" s="26" t="n">
         <f aca="false">(B112-C112)*-24-D112</f>
-        <v>2.5</v>
+        <v>4.25</v>
       </c>
       <c r="F112" s="20"/>
       <c r="G112" s="20" t="s">
@@ -3033,7 +3035,7 @@
       </c>
       <c r="E113" s="27" t="n">
         <f aca="false">SUM(E106:E112)</f>
-        <v>32.8333333333333</v>
+        <v>34.5833333333333</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
@@ -3048,7 +3050,7 @@
       </c>
       <c r="E114" s="22" t="n">
         <f aca="false">SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>165.083333333333</v>
+        <v>166.833333333333</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3209,7 +3211,7 @@
       </c>
       <c r="E124" s="22" t="n">
         <f aca="false">SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>165.083333333333</v>
+        <v>166.833333333333</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3370,7 +3372,7 @@
       </c>
       <c r="E134" s="22" t="n">
         <f aca="false">SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>165.083333333333</v>
+        <v>166.833333333333</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3531,7 +3533,7 @@
       </c>
       <c r="E144" s="22" t="n">
         <f aca="false">SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>165.083333333333</v>
+        <v>166.833333333333</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3692,7 +3694,7 @@
       </c>
       <c r="E154" s="22" t="n">
         <f aca="false">SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>165.083333333333</v>
+        <v>166.833333333333</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3852,7 +3854,7 @@
       </c>
       <c r="E164" s="22" t="n">
         <f aca="false">SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>165.083333333333</v>
+        <v>166.833333333333</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4013,7 +4015,7 @@
       </c>
       <c r="E174" s="22" t="n">
         <f aca="false">SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>165.083333333333</v>
+        <v>166.833333333333</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4174,7 +4176,7 @@
       </c>
       <c r="E184" s="27" t="n">
         <f aca="false">SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>165.083333333333</v>
+        <v>166.833333333333</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
+++ b/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,518 +19,518 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="166">
-  <si>
-    <t xml:space="preserve">Zeiterfassung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tobias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beginn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ende</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pause</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stunden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abwesenheit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stuff done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bemerkungen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo., 09.04.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vision Meeting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Di., 10.04.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GDD erstellt, Mechaniken ausgearbeitet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi., 11.04.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mechaniken ausgearbeiten, Art Meeting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do., 12.04.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mechaniken + GDD ausgearbeitet (Game Loop)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr., 13.04.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pitch-Präsentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sa., 14.04.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So., 15.04.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gesamt (Woche)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gesamt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo., 16.04.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unterricht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Di., 17.04.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi., 18.04.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do., 19.04.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr., 20.04.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sa., 21.04.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So., 22.04.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo., 23.04.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GDD, Level Design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Di., 24.04.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi., 25.04.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do., 26.04.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Level Design, Recherche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr., 27.04.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sa., 28.04.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So., 29.04.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo., 30.04.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dokumentation Mechaniken, Level Design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Di., 01.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi., 02.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do., 03.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr., 04.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sa., 05.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So., 06.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo., 07.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whitebox für Level 1;
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="167">
+  <si>
+    <t>Zeiterfassung</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Tobias</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Beginn</t>
+  </si>
+  <si>
+    <t>Ende</t>
+  </si>
+  <si>
+    <t>Pause</t>
+  </si>
+  <si>
+    <t>Stunden</t>
+  </si>
+  <si>
+    <t>Abwesenheit</t>
+  </si>
+  <si>
+    <t>Stuff done</t>
+  </si>
+  <si>
+    <t>Bemerkungen</t>
+  </si>
+  <si>
+    <t>Mo., 09.04.2018</t>
+  </si>
+  <si>
+    <t>Vision Meeting</t>
+  </si>
+  <si>
+    <t>Di., 10.04.2018</t>
+  </si>
+  <si>
+    <t>GDD erstellt, Mechaniken ausgearbeitet</t>
+  </si>
+  <si>
+    <t>Mi., 11.04.2018</t>
+  </si>
+  <si>
+    <t>Mechaniken ausgearbeiten, Art Meeting</t>
+  </si>
+  <si>
+    <t>Do., 12.04.2018</t>
+  </si>
+  <si>
+    <t>Mechaniken + GDD ausgearbeitet (Game Loop)</t>
+  </si>
+  <si>
+    <t>Fr., 13.04.2018</t>
+  </si>
+  <si>
+    <t>Pitch-Präsentation</t>
+  </si>
+  <si>
+    <t>Sa., 14.04.2018</t>
+  </si>
+  <si>
+    <t>Frei</t>
+  </si>
+  <si>
+    <t>So., 15.04.2018</t>
+  </si>
+  <si>
+    <t>gesamt (Woche)</t>
+  </si>
+  <si>
+    <t>gesamt</t>
+  </si>
+  <si>
+    <t>Mo., 16.04.2018</t>
+  </si>
+  <si>
+    <t>Unterricht</t>
+  </si>
+  <si>
+    <t>Di., 17.04.2018</t>
+  </si>
+  <si>
+    <t>Mi., 18.04.2018</t>
+  </si>
+  <si>
+    <t>Do., 19.04.2018</t>
+  </si>
+  <si>
+    <t>Fr., 20.04.2018</t>
+  </si>
+  <si>
+    <t>Sa., 21.04.2018</t>
+  </si>
+  <si>
+    <t>So., 22.04.2018</t>
+  </si>
+  <si>
+    <t>Mo., 23.04.2018</t>
+  </si>
+  <si>
+    <t>GDD, Level Design</t>
+  </si>
+  <si>
+    <t>Di., 24.04.2018</t>
+  </si>
+  <si>
+    <t>Mi., 25.04.2018</t>
+  </si>
+  <si>
+    <t>Do., 26.04.2018</t>
+  </si>
+  <si>
+    <t>Level Design, Recherche</t>
+  </si>
+  <si>
+    <t>Fr., 27.04.2018</t>
+  </si>
+  <si>
+    <t>Sa., 28.04.2018</t>
+  </si>
+  <si>
+    <t>So., 29.04.2018</t>
+  </si>
+  <si>
+    <t>Mo., 30.04.2018</t>
+  </si>
+  <si>
+    <t>Dokumentation Mechaniken, Level Design</t>
+  </si>
+  <si>
+    <t>Di., 01.05.2018</t>
+  </si>
+  <si>
+    <t>Mi., 02.05.2018</t>
+  </si>
+  <si>
+    <t>Do., 03.05.2018</t>
+  </si>
+  <si>
+    <t>Fr., 04.05.2018</t>
+  </si>
+  <si>
+    <t>Sa., 05.05.2018</t>
+  </si>
+  <si>
+    <t>So., 06.05.2018</t>
+  </si>
+  <si>
+    <t>Mo., 07.05.2018</t>
+  </si>
+  <si>
+    <t>Whitebox für Level 1;
 Level Design mit Artjom besprochen</t>
   </si>
   <si>
-    <t xml:space="preserve">Di., 08.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gedanken der Puppe ausgearbeitet, GDD bearbeitet, Assetliste für Level 1 erstellt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi., 09.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gedanken der Puppe, GDD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do., 10.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr., 11.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GDD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sa., 12.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So., 13.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo., 14.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Di., 15.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi., 16.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do., 17.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr., 18.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sa., 19.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So., 20.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo., 21.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feiertag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Di., 22.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi., 23.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">German Dev Days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do., 24.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr., 25.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sa., 26.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So., 27.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo., 28.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Di., 29.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi., 30.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do., 31.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr., 01.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sa., 02.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So., 03.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo., 04.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meeting, Story</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Di., 05.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story, Assetliste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi., 06.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do., 07.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story, Belichtung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr., 08.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sa., 09.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So., 10.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo., 11.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Di., 12.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi., 13.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do., 14.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr., 15.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sa., 16.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So., 17.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo., 18.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Level 2 Entwurf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Di., 19.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prefabs erstellt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi., 20.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Level 2 fertiggestellt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do., 21.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GDD Update, Level 2 in Unity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr., 22.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Level 2 in Unity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sa., 23.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So., 24.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prefaps erstellt, Level in Unity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo., 25.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Di., 26.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi., 27.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do., 28.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr., 29.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sa., 30.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So., 01.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo., 02.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Di., 03.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi., 04.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do., 05.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr., 06.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sa., 07.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So., 08.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo., 09.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Di., 10.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi., 11.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do., 12.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr., 13.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sa., 14.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So., 15.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo., 16.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Di., 17.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi., 18.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do., 19.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr., 20.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sa., 21.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So., 22.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo., 23.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Di., 24.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi., 25.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do., 26.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr., 27.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sa., 28.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So., 29.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo., 30.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Di., 31.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi., 01.08.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do., 02.08.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr., 03.08.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sa., 04.08.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So., 05.08.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo., 06.08.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Di., 07.08.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi., 08.08.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do., 09.08.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr., 10.08.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sa., 11.08.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So., 12.08.2018</t>
+    <t>Di., 08.05.2018</t>
+  </si>
+  <si>
+    <t>Gedanken der Puppe ausgearbeitet, GDD bearbeitet, Assetliste für Level 1 erstellt</t>
+  </si>
+  <si>
+    <t>Mi., 09.05.2018</t>
+  </si>
+  <si>
+    <t>Gedanken der Puppe, GDD</t>
+  </si>
+  <si>
+    <t>Do., 10.05.2018</t>
+  </si>
+  <si>
+    <t>Fr., 11.05.2018</t>
+  </si>
+  <si>
+    <t>GDD</t>
+  </si>
+  <si>
+    <t>Sa., 12.05.2018</t>
+  </si>
+  <si>
+    <t>So., 13.05.2018</t>
+  </si>
+  <si>
+    <t>Mo., 14.05.2018</t>
+  </si>
+  <si>
+    <t>Di., 15.05.2018</t>
+  </si>
+  <si>
+    <t>Mi., 16.05.2018</t>
+  </si>
+  <si>
+    <t>Do., 17.05.2018</t>
+  </si>
+  <si>
+    <t>Fr., 18.05.2018</t>
+  </si>
+  <si>
+    <t>Sa., 19.05.2018</t>
+  </si>
+  <si>
+    <t>So., 20.05.2018</t>
+  </si>
+  <si>
+    <t>Mo., 21.05.2018</t>
+  </si>
+  <si>
+    <t>Feiertag</t>
+  </si>
+  <si>
+    <t>Di., 22.05.2018</t>
+  </si>
+  <si>
+    <t>Mi., 23.05.2018</t>
+  </si>
+  <si>
+    <t>German Dev Days</t>
+  </si>
+  <si>
+    <t>Do., 24.05.2018</t>
+  </si>
+  <si>
+    <t>Fr., 25.05.2018</t>
+  </si>
+  <si>
+    <t>Gate</t>
+  </si>
+  <si>
+    <t>Sa., 26.05.2018</t>
+  </si>
+  <si>
+    <t>So., 27.05.2018</t>
+  </si>
+  <si>
+    <t>Mo., 28.05.2018</t>
+  </si>
+  <si>
+    <t>Di., 29.05.2018</t>
+  </si>
+  <si>
+    <t>Mi., 30.05.2018</t>
+  </si>
+  <si>
+    <t>Do., 31.05.2018</t>
+  </si>
+  <si>
+    <t>Fr., 01.06.2018</t>
+  </si>
+  <si>
+    <t>Sa., 02.06.2018</t>
+  </si>
+  <si>
+    <t>So., 03.06.2018</t>
+  </si>
+  <si>
+    <t>Mo., 04.06.2018</t>
+  </si>
+  <si>
+    <t>Meeting, Story</t>
+  </si>
+  <si>
+    <t>Di., 05.06.2018</t>
+  </si>
+  <si>
+    <t>Story, Assetliste</t>
+  </si>
+  <si>
+    <t>Mi., 06.06.2018</t>
+  </si>
+  <si>
+    <t>Story</t>
+  </si>
+  <si>
+    <t>Do., 07.06.2018</t>
+  </si>
+  <si>
+    <t>Story, Belichtung</t>
+  </si>
+  <si>
+    <t>Fr., 08.06.2018</t>
+  </si>
+  <si>
+    <t>Sa., 09.06.2018</t>
+  </si>
+  <si>
+    <t>So., 10.06.2018</t>
+  </si>
+  <si>
+    <t>Mo., 11.06.2018</t>
+  </si>
+  <si>
+    <t>Di., 12.06.2018</t>
+  </si>
+  <si>
+    <t>Mi., 13.06.2018</t>
+  </si>
+  <si>
+    <t>Do., 14.06.2018</t>
+  </si>
+  <si>
+    <t>Fr., 15.06.2018</t>
+  </si>
+  <si>
+    <t>Sa., 16.06.2018</t>
+  </si>
+  <si>
+    <t>So., 17.06.2018</t>
+  </si>
+  <si>
+    <t>Mo., 18.06.2018</t>
+  </si>
+  <si>
+    <t>Level 2 Entwurf</t>
+  </si>
+  <si>
+    <t>Di., 19.06.2018</t>
+  </si>
+  <si>
+    <t>Prefabs erstellt</t>
+  </si>
+  <si>
+    <t>Mi., 20.06.2018</t>
+  </si>
+  <si>
+    <t>Level 2 fertiggestellt</t>
+  </si>
+  <si>
+    <t>Do., 21.06.2018</t>
+  </si>
+  <si>
+    <t>GDD Update, Level 2 in Unity</t>
+  </si>
+  <si>
+    <t>Fr., 22.06.2018</t>
+  </si>
+  <si>
+    <t>Level 2 in Unity</t>
+  </si>
+  <si>
+    <t>Sa., 23.06.2018</t>
+  </si>
+  <si>
+    <t>So., 24.06.2018</t>
+  </si>
+  <si>
+    <t>Prefaps erstellt, Level in Unity</t>
+  </si>
+  <si>
+    <t>Mo., 25.06.2018</t>
+  </si>
+  <si>
+    <t>Di., 26.06.2018</t>
+  </si>
+  <si>
+    <t>Mi., 27.06.2018</t>
+  </si>
+  <si>
+    <t>Do., 28.06.2018</t>
+  </si>
+  <si>
+    <t>Fr., 29.06.2018</t>
+  </si>
+  <si>
+    <t>Sa., 30.06.2018</t>
+  </si>
+  <si>
+    <t>So., 01.07.2018</t>
+  </si>
+  <si>
+    <t>Mo., 02.07.2018</t>
+  </si>
+  <si>
+    <t>Di., 03.07.2018</t>
+  </si>
+  <si>
+    <t>Mi., 04.07.2018</t>
+  </si>
+  <si>
+    <t>Do., 05.07.2018</t>
+  </si>
+  <si>
+    <t>Fr., 06.07.2018</t>
+  </si>
+  <si>
+    <t>Sa., 07.07.2018</t>
+  </si>
+  <si>
+    <t>So., 08.07.2018</t>
+  </si>
+  <si>
+    <t>Mo., 09.07.2018</t>
+  </si>
+  <si>
+    <t>Di., 10.07.2018</t>
+  </si>
+  <si>
+    <t>Mi., 11.07.2018</t>
+  </si>
+  <si>
+    <t>Do., 12.07.2018</t>
+  </si>
+  <si>
+    <t>Fr., 13.07.2018</t>
+  </si>
+  <si>
+    <t>Sa., 14.07.2018</t>
+  </si>
+  <si>
+    <t>So., 15.07.2018</t>
+  </si>
+  <si>
+    <t>Mo., 16.07.2018</t>
+  </si>
+  <si>
+    <t>Di., 17.07.2018</t>
+  </si>
+  <si>
+    <t>Mi., 18.07.2018</t>
+  </si>
+  <si>
+    <t>Do., 19.07.2018</t>
+  </si>
+  <si>
+    <t>Fr., 20.07.2018</t>
+  </si>
+  <si>
+    <t>Sa., 21.07.2018</t>
+  </si>
+  <si>
+    <t>So., 22.07.2018</t>
+  </si>
+  <si>
+    <t>Mo., 23.07.2018</t>
+  </si>
+  <si>
+    <t>Di., 24.07.2018</t>
+  </si>
+  <si>
+    <t>Mi., 25.07.2018</t>
+  </si>
+  <si>
+    <t>Do., 26.07.2018</t>
+  </si>
+  <si>
+    <t>Fr., 27.07.2018</t>
+  </si>
+  <si>
+    <t>Sa., 28.07.2018</t>
+  </si>
+  <si>
+    <t>So., 29.07.2018</t>
+  </si>
+  <si>
+    <t>Mo., 30.07.2018</t>
+  </si>
+  <si>
+    <t>Di., 31.07.2018</t>
+  </si>
+  <si>
+    <t>Mi., 01.08.2018</t>
+  </si>
+  <si>
+    <t>Do., 02.08.2018</t>
+  </si>
+  <si>
+    <t>Fr., 03.08.2018</t>
+  </si>
+  <si>
+    <t>Sa., 04.08.2018</t>
+  </si>
+  <si>
+    <t>So., 05.08.2018</t>
+  </si>
+  <si>
+    <t>Mo., 06.08.2018</t>
+  </si>
+  <si>
+    <t>Di., 07.08.2018</t>
+  </si>
+  <si>
+    <t>Mi., 08.08.2018</t>
+  </si>
+  <si>
+    <t>Do., 09.08.2018</t>
+  </si>
+  <si>
+    <t>Fr., 10.08.2018</t>
+  </si>
+  <si>
+    <t>Sa., 11.08.2018</t>
+  </si>
+  <si>
+    <t>So., 12.08.2018</t>
+  </si>
+  <si>
+    <t>Lighting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="H:MM;@"/>
-    <numFmt numFmtId="166" formatCode="0.00"/>
-    <numFmt numFmtId="167" formatCode="HH:MM"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -540,22 +539,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -566,6 +550,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -603,14 +594,14 @@
     </fill>
   </fills>
   <borders count="10">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
@@ -625,7 +616,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
@@ -635,41 +626,55 @@
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
-      <right style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
-      <right style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
@@ -677,26 +682,40 @@
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
@@ -710,161 +729,101 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="29">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="6" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="7" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="4" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="4" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+  <cellStyles count="2">
+    <cellStyle name="Erklärender Text" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -923,33 +882,328 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+  <a:themeElements>
+    <a:clrScheme name="Larissa">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Larissa">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Larissa">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A90" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J112" activeCellId="0" sqref="J112"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="22.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="22.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="10.66"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="7" width="22.7109375" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" customWidth="1"/>
+    <col min="9" max="1025" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -961,7 +1215,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -971,7 +1225,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -985,7 +1239,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -995,7 +1249,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1021,22 +1275,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="7" t="n">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C6" s="7" t="n">
+      <c r="B6" s="7">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C6" s="7">
         <v>0.75</v>
       </c>
-      <c r="D6" s="8" t="n">
+      <c r="D6" s="8">
         <v>1</v>
       </c>
-      <c r="E6" s="9" t="n">
-        <f aca="false">(B6-C6)*-24-D6</f>
-        <v>7</v>
+      <c r="E6" s="9">
+        <f t="shared" ref="E6:E12" si="0">(B6-C6)*-24-D6</f>
+        <v>6.9999999999999911</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10" t="s">
@@ -1044,21 +1298,21 @@
       </c>
       <c r="H6" s="11"/>
     </row>
-    <row r="7" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="12" t="n">
+      <c r="B7" s="12">
         <v>0.375</v>
       </c>
-      <c r="C7" s="12" t="n">
+      <c r="C7" s="12">
         <v>0.75</v>
       </c>
-      <c r="D7" s="13" t="n">
+      <c r="D7" s="13">
         <v>1</v>
       </c>
-      <c r="E7" s="9" t="n">
-        <f aca="false">(B7-C7)*-24-D7</f>
+      <c r="E7" s="9">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F7" s="11"/>
@@ -1067,22 +1321,22 @@
       </c>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" customFormat="false" ht="39.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="12" t="n">
-        <v>0.395833333333333</v>
-      </c>
-      <c r="C8" s="12" t="n">
-        <v>0.729166666666667</v>
-      </c>
-      <c r="D8" s="13" t="n">
+      <c r="B8" s="12">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="D8" s="13">
         <v>2</v>
       </c>
-      <c r="E8" s="9" t="n">
-        <f aca="false">(B8-C8)*-24-D8</f>
-        <v>6</v>
+      <c r="E8" s="9">
+        <f t="shared" si="0"/>
+        <v>6.000000000000016</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11" t="s">
@@ -1090,22 +1344,22 @@
       </c>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" customFormat="false" ht="39.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="12" t="n">
-        <v>0.381944444444444</v>
-      </c>
-      <c r="C9" s="12" t="n">
-        <v>0.770833333333333</v>
-      </c>
-      <c r="D9" s="13" t="n">
+      <c r="B9" s="12">
+        <v>0.38194444444444398</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0.77083333333333304</v>
+      </c>
+      <c r="D9" s="13">
         <v>1.5</v>
       </c>
-      <c r="E9" s="9" t="n">
-        <f aca="false">(B9-C9)*-24-D9</f>
-        <v>7.83333333333334</v>
+      <c r="E9" s="9">
+        <f t="shared" si="0"/>
+        <v>7.8333333333333375</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11" t="s">
@@ -1113,22 +1367,22 @@
       </c>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="12" t="n">
-        <v>0.395833333333333</v>
-      </c>
-      <c r="C10" s="14" t="n">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D10" s="13" t="n">
+      <c r="B10" s="12">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="C10" s="14">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="D10" s="13">
         <v>1</v>
       </c>
-      <c r="E10" s="9" t="n">
-        <f aca="false">(B10-C10)*-24-D10</f>
-        <v>6.5</v>
+      <c r="E10" s="9">
+        <f t="shared" si="0"/>
+        <v>6.5000000000000018</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11" t="s">
@@ -1136,16 +1390,16 @@
       </c>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="15" t="n">
-        <f aca="false">(B11-C11)*-24-D11</f>
-        <v>-0</v>
+      <c r="E11" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -1153,52 +1407,52 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="17"/>
-      <c r="E12" s="18" t="n">
-        <f aca="false">(B12-C12)*-24-D12</f>
-        <v>-0</v>
+      <c r="E12" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="21" t="n">
-        <f aca="false">SUM(E6:E12)</f>
-        <v>35.3333333333333</v>
+      <c r="E13" s="21">
+        <f>SUM(E6:E12)</f>
+        <v>35.333333333333343</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="22" t="n">
-        <f aca="false">SUM(E13)</f>
-        <v>35.3333333333333</v>
+      <c r="E14" s="22">
+        <f>SUM(E13)</f>
+        <v>35.333333333333343</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>3</v>
       </c>
@@ -1224,15 +1478,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="23"/>
-      <c r="E16" s="9" t="n">
-        <f aca="false">(B16-C16)*-24-D16</f>
+      <c r="E16" s="9">
+        <f t="shared" ref="E16:E22" si="1">(B16-C16)*-24-D16</f>
         <v>0</v>
       </c>
       <c r="F16" s="11"/>
@@ -1241,16 +1495,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="9" t="n">
-        <f aca="false">(B17-C17)*-24-D17</f>
-        <v>-0</v>
+      <c r="E17" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -1258,20 +1512,20 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="12" t="n">
-        <v>0.697916666666667</v>
-      </c>
-      <c r="C18" s="12" t="n">
+      <c r="B18" s="12">
+        <v>0.69791666666666696</v>
+      </c>
+      <c r="C18" s="12">
         <v>0.75</v>
       </c>
       <c r="D18" s="13"/>
-      <c r="E18" s="9" t="n">
-        <f aca="false">(B18-C18)*-24-D18</f>
-        <v>1.25</v>
+      <c r="E18" s="9">
+        <f t="shared" si="1"/>
+        <v>1.2499999999999929</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11" t="s">
@@ -1279,16 +1533,16 @@
       </c>
       <c r="H18" s="11"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="13"/>
-      <c r="E19" s="9" t="n">
-        <f aca="false">(B19-C19)*-24-D19</f>
-        <v>-0</v>
+      <c r="E19" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
@@ -1296,16 +1550,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="13"/>
-      <c r="E20" s="9" t="n">
-        <f aca="false">(B20-C20)*-24-D20</f>
-        <v>-0</v>
+      <c r="E20" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
@@ -1313,16 +1567,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="13"/>
-      <c r="E21" s="15" t="n">
-        <f aca="false">(B21-C21)*-24-D21</f>
-        <v>-0</v>
+      <c r="E21" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
@@ -1330,52 +1584,52 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="17"/>
-      <c r="E22" s="18" t="n">
-        <f aca="false">(B22-C22)*-24-D22</f>
-        <v>-0</v>
+      <c r="E22" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="21" t="n">
-        <f aca="false">SUM(E16:E22)</f>
-        <v>1.25</v>
+      <c r="E23" s="21">
+        <f>SUM(E16:E22)</f>
+        <v>1.2499999999999929</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="22" t="n">
-        <f aca="false">SUM(E13+E23)</f>
-        <v>36.5833333333333</v>
+      <c r="E24" s="22">
+        <f>SUM(E13+E23)</f>
+        <v>36.583333333333336</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>3</v>
       </c>
@@ -1401,22 +1655,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="12" t="n">
+      <c r="B26" s="12">
         <v>0.375</v>
       </c>
-      <c r="C26" s="12" t="n">
-        <v>0.729166666666667</v>
-      </c>
-      <c r="D26" s="23" t="n">
+      <c r="C26" s="12">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="D26" s="23">
         <v>1.5</v>
       </c>
-      <c r="E26" s="9" t="n">
-        <f aca="false">(B26-C26)*-24-D26</f>
-        <v>7</v>
+      <c r="E26" s="9">
+        <f t="shared" ref="E26:E32" si="2">(B26-C26)*-24-D26</f>
+        <v>7.0000000000000071</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11" t="s">
@@ -1424,22 +1678,22 @@
       </c>
       <c r="H26" s="11"/>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="12" t="n">
-        <v>0.395833333333333</v>
-      </c>
-      <c r="C27" s="12" t="n">
-        <v>0.694444444444444</v>
-      </c>
-      <c r="D27" s="13" t="n">
+      <c r="B27" s="12">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="C27" s="12">
+        <v>0.69444444444444398</v>
+      </c>
+      <c r="D27" s="13">
         <v>1.25</v>
       </c>
-      <c r="E27" s="9" t="n">
-        <f aca="false">(B27-C27)*-24-D27</f>
-        <v>5.91666666666667</v>
+      <c r="E27" s="9">
+        <f t="shared" si="2"/>
+        <v>5.9166666666666643</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11" t="s">
@@ -1447,22 +1701,22 @@
       </c>
       <c r="H27" s="11"/>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="12" t="n">
+      <c r="B28" s="12">
         <v>0.375</v>
       </c>
-      <c r="C28" s="12" t="n">
-        <v>0.722222222222222</v>
-      </c>
-      <c r="D28" s="13" t="n">
+      <c r="C28" s="12">
+        <v>0.72222222222222199</v>
+      </c>
+      <c r="D28" s="13">
         <v>1.5</v>
       </c>
-      <c r="E28" s="9" t="n">
-        <f aca="false">(B28-C28)*-24-D28</f>
-        <v>6.83333333333334</v>
+      <c r="E28" s="9">
+        <f t="shared" si="2"/>
+        <v>6.8333333333333286</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="11" t="s">
@@ -1470,22 +1724,22 @@
       </c>
       <c r="H28" s="11"/>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="12" t="n">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C29" s="12" t="n">
+      <c r="B29" s="12">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C29" s="12">
         <v>0.75</v>
       </c>
-      <c r="D29" s="13" t="n">
+      <c r="D29" s="13">
         <v>1.25</v>
       </c>
-      <c r="E29" s="9" t="n">
-        <f aca="false">(B29-C29)*-24-D29</f>
-        <v>6.75</v>
+      <c r="E29" s="9">
+        <f t="shared" si="2"/>
+        <v>6.7499999999999911</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="11" t="s">
@@ -1493,82 +1747,82 @@
       </c>
       <c r="H29" s="11"/>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="13"/>
-      <c r="E30" s="9" t="n">
-        <f aca="false">(B30-C30)*-24-D30</f>
-        <v>-0</v>
+      <c r="E30" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="13"/>
-      <c r="E31" s="15" t="n">
-        <f aca="false">(B31-C31)*-24-D31</f>
-        <v>-0</v>
+      <c r="E31" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="17"/>
-      <c r="E32" s="18" t="n">
-        <f aca="false">(B32-C32)*-24-D32</f>
-        <v>-0</v>
+      <c r="E32" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="F32" s="19"/>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="21" t="n">
-        <f aca="false">SUM(E26:E32)</f>
-        <v>26.5</v>
+      <c r="E33" s="21">
+        <f>SUM(E26:E32)</f>
+        <v>26.499999999999993</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E34" s="22" t="n">
-        <f aca="false">SUM(E13+E23+E33)</f>
-        <v>63.0833333333333</v>
+      <c r="E34" s="22">
+        <f>SUM(E13+E23+E33)</f>
+        <v>63.083333333333329</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>3</v>
       </c>
@@ -1594,22 +1848,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="39.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="12" t="n">
-        <v>0.364583333333333</v>
-      </c>
-      <c r="C36" s="12" t="n">
-        <v>0.697916666666667</v>
-      </c>
-      <c r="D36" s="23" t="n">
+      <c r="B36" s="12">
+        <v>0.36458333333333298</v>
+      </c>
+      <c r="C36" s="12">
+        <v>0.69791666666666696</v>
+      </c>
+      <c r="D36" s="23">
         <v>2</v>
       </c>
-      <c r="E36" s="9" t="n">
-        <f aca="false">(B36-C36)*-24-D36</f>
-        <v>6</v>
+      <c r="E36" s="9">
+        <f t="shared" ref="E36:E42" si="3">(B36-C36)*-24-D36</f>
+        <v>6.000000000000016</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="11" t="s">
@@ -1617,16 +1871,16 @@
       </c>
       <c r="H36" s="11"/>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="13"/>
-      <c r="E37" s="9" t="n">
-        <f aca="false">(B37-C37)*-24-D37</f>
-        <v>-0</v>
+      <c r="E37" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
@@ -1634,16 +1888,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="9" t="n">
-        <f aca="false">(B38-C38)*-24-D38</f>
-        <v>-0</v>
+      <c r="E38" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
@@ -1651,16 +1905,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="13"/>
-      <c r="E39" s="9" t="n">
-        <f aca="false">(B39-C39)*-24-D39</f>
-        <v>-0</v>
+      <c r="E39" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
@@ -1668,16 +1922,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="13"/>
-      <c r="E40" s="9" t="n">
-        <f aca="false">(B40-C40)*-24-D40</f>
-        <v>-0</v>
+      <c r="E40" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
@@ -1685,16 +1939,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="13"/>
-      <c r="E41" s="15" t="n">
-        <f aca="false">(B41-C41)*-24-D41</f>
-        <v>-0</v>
+      <c r="E41" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
@@ -1702,52 +1956,52 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
       <c r="D42" s="17"/>
-      <c r="E42" s="18" t="n">
-        <f aca="false">(B42-C42)*-24-D42</f>
-        <v>-0</v>
+      <c r="E42" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="F42" s="19"/>
       <c r="G42" s="20"/>
       <c r="H42" s="20"/>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E43" s="21" t="n">
-        <f aca="false">SUM(E36:E42)</f>
-        <v>6</v>
+      <c r="E43" s="21">
+        <f>SUM(E36:E42)</f>
+        <v>6.000000000000016</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E44" s="22" t="n">
-        <f aca="false">SUM(E13+E23+E33+E43)</f>
-        <v>69.0833333333333</v>
+      <c r="E44" s="22">
+        <f>SUM(E13+E23+E33+E43)</f>
+        <v>69.083333333333343</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>3</v>
       </c>
@@ -1773,22 +2027,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="39.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="12" t="n">
+      <c r="B46" s="12">
         <v>0.40625</v>
       </c>
-      <c r="C46" s="12" t="n">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D46" s="23" t="n">
+      <c r="C46" s="12">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="D46" s="23">
         <v>1.5</v>
       </c>
-      <c r="E46" s="9" t="n">
-        <f aca="false">(B46-C46)*-24-D46</f>
-        <v>5.75</v>
+      <c r="E46" s="9">
+        <f t="shared" ref="E46:E52" si="4">(B46-C46)*-24-D46</f>
+        <v>5.7499999999999929</v>
       </c>
       <c r="F46" s="11"/>
       <c r="G46" s="11" t="s">
@@ -1796,22 +2050,22 @@
       </c>
       <c r="H46" s="11"/>
     </row>
-    <row r="47" customFormat="false" ht="52.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="12" t="n">
-        <v>0.402777777777778</v>
-      </c>
-      <c r="C47" s="12" t="n">
-        <v>0.736111111111111</v>
-      </c>
-      <c r="D47" s="13" t="n">
+      <c r="B47" s="12">
+        <v>0.40277777777777801</v>
+      </c>
+      <c r="C47" s="12">
+        <v>0.73611111111111105</v>
+      </c>
+      <c r="D47" s="13">
         <v>2</v>
       </c>
-      <c r="E47" s="9" t="n">
-        <f aca="false">(B47-C47)*-24-D47</f>
-        <v>6</v>
+      <c r="E47" s="9">
+        <f t="shared" si="4"/>
+        <v>5.9999999999999929</v>
       </c>
       <c r="F47" s="11"/>
       <c r="G47" s="11" t="s">
@@ -1819,22 +2073,22 @@
       </c>
       <c r="H47" s="11"/>
     </row>
-    <row r="48" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B48" s="12" t="n">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C48" s="12" t="n">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D48" s="13" t="n">
+      <c r="B48" s="12">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C48" s="12">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="D48" s="13">
         <v>1</v>
       </c>
-      <c r="E48" s="9" t="n">
-        <f aca="false">(B48-C48)*-24-D48</f>
-        <v>6</v>
+      <c r="E48" s="9">
+        <f t="shared" si="4"/>
+        <v>5.999999999999984</v>
       </c>
       <c r="F48" s="11"/>
       <c r="G48" s="11" t="s">
@@ -1842,37 +2096,37 @@
       </c>
       <c r="H48" s="11"/>
     </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
       <c r="D49" s="13"/>
-      <c r="E49" s="9" t="n">
-        <f aca="false">(B49-C49)*-24-D49</f>
-        <v>-0</v>
+      <c r="E49" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="12" t="n">
-        <v>0.388888888888889</v>
-      </c>
-      <c r="C50" s="12" t="n">
+      <c r="B50" s="12">
+        <v>0.38888888888888901</v>
+      </c>
+      <c r="C50" s="12">
         <v>0.75</v>
       </c>
-      <c r="D50" s="13" t="n">
+      <c r="D50" s="13">
         <v>2.5</v>
       </c>
-      <c r="E50" s="9" t="n">
-        <f aca="false">(B50-C50)*-24-D50</f>
-        <v>6.16666666666667</v>
+      <c r="E50" s="9">
+        <f t="shared" si="4"/>
+        <v>6.1666666666666643</v>
       </c>
       <c r="F50" s="11"/>
       <c r="G50" s="11" t="s">
@@ -1880,16 +2134,16 @@
       </c>
       <c r="H50" s="11"/>
     </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
       <c r="D51" s="13"/>
-      <c r="E51" s="15" t="n">
-        <f aca="false">(B51-C51)*-24-D51</f>
-        <v>-0</v>
+      <c r="E51" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
@@ -1897,52 +2151,52 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>61</v>
       </c>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
       <c r="D52" s="17"/>
-      <c r="E52" s="18" t="n">
-        <f aca="false">(B52-C52)*-24-D52</f>
-        <v>-0</v>
+      <c r="E52" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F52" s="19"/>
       <c r="G52" s="20"/>
       <c r="H52" s="20"/>
     </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E53" s="21" t="n">
-        <f aca="false">SUM(E46:E52)</f>
-        <v>23.9166666666667</v>
+      <c r="E53" s="21">
+        <f>SUM(E46:E52)</f>
+        <v>23.916666666666636</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E54" s="22" t="n">
-        <f aca="false">SUM(E13+E23+E33+E43+E53)</f>
-        <v>93</v>
+      <c r="E54" s="22">
+        <f>SUM(E13+E23+E33+E43+E53)</f>
+        <v>92.999999999999972</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
     </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>3</v>
       </c>
@@ -1968,15 +2222,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>62</v>
       </c>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
       <c r="D56" s="23"/>
-      <c r="E56" s="9" t="n">
-        <f aca="false">(B56-C56)*-24-D56</f>
+      <c r="E56" s="9">
+        <f t="shared" ref="E56:E62" si="5">(B56-C56)*-24-D56</f>
         <v>0</v>
       </c>
       <c r="F56" s="11"/>
@@ -1985,16 +2239,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
       <c r="D57" s="13"/>
-      <c r="E57" s="9" t="n">
-        <f aca="false">(B57-C57)*-24-D57</f>
-        <v>-0</v>
+      <c r="E57" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
@@ -2002,16 +2256,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
       <c r="D58" s="13"/>
-      <c r="E58" s="9" t="n">
-        <f aca="false">(B58-C58)*-24-D58</f>
-        <v>-0</v>
+      <c r="E58" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
@@ -2019,16 +2273,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>65</v>
       </c>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
       <c r="D59" s="13"/>
-      <c r="E59" s="9" t="n">
-        <f aca="false">(B59-C59)*-24-D59</f>
-        <v>-0</v>
+      <c r="E59" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
@@ -2036,16 +2290,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
       <c r="D60" s="13"/>
-      <c r="E60" s="9" t="n">
-        <f aca="false">(B60-C60)*-24-D60</f>
-        <v>-0</v>
+      <c r="E60" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
@@ -2053,16 +2307,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>67</v>
       </c>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
       <c r="D61" s="13"/>
-      <c r="E61" s="15" t="n">
-        <f aca="false">(B61-C61)*-24-D61</f>
-        <v>-0</v>
+      <c r="E61" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
@@ -2070,52 +2324,52 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>68</v>
       </c>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
       <c r="D62" s="17"/>
-      <c r="E62" s="18" t="n">
-        <f aca="false">(B62-C62)*-24-D62</f>
-        <v>-0</v>
+      <c r="E62" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="F62" s="19"/>
       <c r="G62" s="20"/>
       <c r="H62" s="20"/>
     </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E63" s="21" t="n">
-        <f aca="false">SUM(E56:E62)</f>
+      <c r="E63" s="21">
+        <f>SUM(E56:E62)</f>
         <v>0</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
     </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E64" s="22" t="n">
-        <f aca="false">SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>93</v>
+      <c r="E64" s="22">
+        <f>SUM(E13+E23+E33+E43+E53+E63)</f>
+        <v>92.999999999999972</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>3</v>
       </c>
@@ -2141,15 +2395,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
       <c r="D66" s="23"/>
-      <c r="E66" s="9" t="n">
-        <f aca="false">(B66-C66)*-24-D66</f>
+      <c r="E66" s="9">
+        <f t="shared" ref="E66:E72" si="6">(B66-C66)*-24-D66</f>
         <v>0</v>
       </c>
       <c r="F66" s="11"/>
@@ -2158,37 +2412,37 @@
         <v>70</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B67" s="12" t="n">
-        <v>0.395833333333333</v>
-      </c>
-      <c r="C67" s="12" t="n">
+      <c r="B67" s="12">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="C67" s="12">
         <v>0.6875</v>
       </c>
-      <c r="D67" s="13" t="n">
+      <c r="D67" s="13">
         <v>1</v>
       </c>
-      <c r="E67" s="9" t="n">
-        <f aca="false">(B67-C67)*-24-D67</f>
-        <v>6</v>
+      <c r="E67" s="9">
+        <f t="shared" si="6"/>
+        <v>6.0000000000000089</v>
       </c>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
     </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>72</v>
       </c>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
       <c r="D68" s="13"/>
-      <c r="E68" s="9" t="n">
-        <f aca="false">(B68-C68)*-24-D68</f>
-        <v>-0</v>
+      <c r="E68" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="F68" s="11" t="s">
         <v>73</v>
@@ -2196,16 +2450,16 @@
       <c r="G68" s="11"/>
       <c r="H68" s="11"/>
     </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>74</v>
       </c>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
       <c r="D69" s="13"/>
-      <c r="E69" s="9" t="n">
-        <f aca="false">(B69-C69)*-24-D69</f>
-        <v>-0</v>
+      <c r="E69" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="F69" s="11" t="s">
         <v>73</v>
@@ -2213,22 +2467,22 @@
       <c r="G69" s="11"/>
       <c r="H69" s="11"/>
     </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B70" s="12" t="n">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C70" s="12" t="n">
+      <c r="B70" s="12">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C70" s="12">
         <v>0.6875</v>
       </c>
-      <c r="D70" s="13" t="n">
+      <c r="D70" s="13">
         <v>1</v>
       </c>
-      <c r="E70" s="9" t="n">
-        <f aca="false">(B70-C70)*-24-D70</f>
-        <v>5.5</v>
+      <c r="E70" s="9">
+        <f t="shared" si="6"/>
+        <v>5.4999999999999911</v>
       </c>
       <c r="F70" s="11"/>
       <c r="G70" s="11" t="s">
@@ -2236,16 +2490,16 @@
       </c>
       <c r="H70" s="11"/>
     </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>77</v>
       </c>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
       <c r="D71" s="13"/>
-      <c r="E71" s="9" t="n">
-        <f aca="false">(B71-C71)*-24-D71</f>
-        <v>-0</v>
+      <c r="E71" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="F71" s="11"/>
       <c r="G71" s="11"/>
@@ -2253,52 +2507,52 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>78</v>
       </c>
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
       <c r="D72" s="25"/>
-      <c r="E72" s="26" t="n">
-        <f aca="false">(B72-C72)*-24-D72</f>
-        <v>-0</v>
+      <c r="E72" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="F72" s="20"/>
       <c r="G72" s="20"/>
       <c r="H72" s="20"/>
     </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E73" s="27" t="n">
-        <f aca="false">SUM(E66:E72)</f>
+      <c r="E73" s="27">
+        <f>SUM(E66:E72)</f>
         <v>11.5</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
     </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E74" s="22" t="n">
-        <f aca="false">SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>104.5</v>
+      <c r="E74" s="22">
+        <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
+        <v>104.49999999999997</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
     </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>3</v>
       </c>
@@ -2324,15 +2578,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
       <c r="D76" s="23"/>
-      <c r="E76" s="9" t="n">
-        <f aca="false">(B76-C76)*-24-D76</f>
+      <c r="E76" s="9">
+        <f t="shared" ref="E76:E82" si="7">(B76-C76)*-24-D76</f>
         <v>0</v>
       </c>
       <c r="F76" s="11"/>
@@ -2341,16 +2595,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
       <c r="D77" s="13"/>
-      <c r="E77" s="9" t="n">
-        <f aca="false">(B77-C77)*-24-D77</f>
-        <v>-0</v>
+      <c r="E77" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="F77" s="11"/>
       <c r="G77" s="11"/>
@@ -2358,16 +2612,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
       <c r="D78" s="13"/>
-      <c r="E78" s="9" t="n">
-        <f aca="false">(B78-C78)*-24-D78</f>
-        <v>-0</v>
+      <c r="E78" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="F78" s="11"/>
       <c r="G78" s="11"/>
@@ -2375,16 +2629,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>82</v>
       </c>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
       <c r="D79" s="13"/>
-      <c r="E79" s="9" t="n">
-        <f aca="false">(B79-C79)*-24-D79</f>
-        <v>-0</v>
+      <c r="E79" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="F79" s="11"/>
       <c r="G79" s="11"/>
@@ -2392,16 +2646,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
       <c r="D80" s="13"/>
-      <c r="E80" s="9" t="n">
-        <f aca="false">(B80-C80)*-24-D80</f>
-        <v>-0</v>
+      <c r="E80" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="F80" s="11"/>
       <c r="G80" s="11"/>
@@ -2409,16 +2663,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>84</v>
       </c>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
       <c r="D81" s="13"/>
-      <c r="E81" s="9" t="n">
-        <f aca="false">(B81-C81)*-24-D81</f>
-        <v>-0</v>
+      <c r="E81" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="F81" s="11"/>
       <c r="G81" s="11"/>
@@ -2426,52 +2680,52 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>85</v>
       </c>
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
       <c r="D82" s="25"/>
-      <c r="E82" s="26" t="n">
-        <f aca="false">(B82-C82)*-24-D82</f>
-        <v>-0</v>
+      <c r="E82" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="F82" s="20"/>
       <c r="G82" s="20"/>
       <c r="H82" s="20"/>
     </row>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="27" t="n">
-        <f aca="false">SUM(E76:E82)</f>
+      <c r="E83" s="27">
+        <f>SUM(E76:E82)</f>
         <v>0</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
     </row>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E84" s="22" t="n">
-        <f aca="false">SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>104.5</v>
+      <c r="E84" s="22">
+        <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
+        <v>104.49999999999997</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
     </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>3</v>
       </c>
@@ -2497,22 +2751,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B86" s="12" t="n">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C86" s="12" t="n">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D86" s="23" t="n">
+      <c r="B86" s="12">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C86" s="12">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="D86" s="23">
         <v>2</v>
       </c>
-      <c r="E86" s="9" t="n">
-        <f aca="false">(B86-C86)*-24-D86</f>
-        <v>5</v>
+      <c r="E86" s="9">
+        <f t="shared" ref="E86:E92" si="8">(B86-C86)*-24-D86</f>
+        <v>4.999999999999984</v>
       </c>
       <c r="F86" s="11"/>
       <c r="G86" s="11" t="s">
@@ -2520,22 +2774,22 @@
       </c>
       <c r="H86" s="11"/>
     </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B87" s="12" t="n">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C87" s="12" t="n">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D87" s="13" t="n">
+      <c r="B87" s="12">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C87" s="12">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="D87" s="13">
         <v>1.5</v>
       </c>
-      <c r="E87" s="9" t="n">
-        <f aca="false">(B87-C87)*-24-D87</f>
-        <v>5.5</v>
+      <c r="E87" s="9">
+        <f t="shared" si="8"/>
+        <v>5.499999999999984</v>
       </c>
       <c r="F87" s="11"/>
       <c r="G87" s="11" t="s">
@@ -2543,22 +2797,22 @@
       </c>
       <c r="H87" s="11"/>
     </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B88" s="12" t="n">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C88" s="12" t="n">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D88" s="13" t="n">
+      <c r="B88" s="12">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C88" s="12">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="D88" s="13">
         <v>1</v>
       </c>
-      <c r="E88" s="9" t="n">
-        <f aca="false">(B88-C88)*-24-D88</f>
-        <v>6</v>
+      <c r="E88" s="9">
+        <f t="shared" si="8"/>
+        <v>5.999999999999984</v>
       </c>
       <c r="F88" s="11"/>
       <c r="G88" s="11" t="s">
@@ -2566,22 +2820,22 @@
       </c>
       <c r="H88" s="11"/>
     </row>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B89" s="12" t="n">
+      <c r="B89" s="12">
         <v>0.40625</v>
       </c>
-      <c r="C89" s="12" t="n">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D89" s="13" t="n">
+      <c r="C89" s="12">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="D89" s="13">
         <v>1.5</v>
       </c>
-      <c r="E89" s="9" t="n">
-        <f aca="false">(B89-C89)*-24-D89</f>
-        <v>5.75</v>
+      <c r="E89" s="9">
+        <f t="shared" si="8"/>
+        <v>5.7499999999999929</v>
       </c>
       <c r="F89" s="11"/>
       <c r="G89" s="11" t="s">
@@ -2589,22 +2843,22 @@
       </c>
       <c r="H89" s="11"/>
     </row>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B90" s="12" t="n">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C90" s="12" t="n">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D90" s="13" t="n">
+      <c r="B90" s="12">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C90" s="12">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="D90" s="13">
         <v>1.5</v>
       </c>
-      <c r="E90" s="9" t="n">
-        <f aca="false">(B90-C90)*-24-D90</f>
-        <v>5.5</v>
+      <c r="E90" s="9">
+        <f t="shared" si="8"/>
+        <v>5.499999999999984</v>
       </c>
       <c r="F90" s="11"/>
       <c r="G90" s="11" t="s">
@@ -2612,16 +2866,16 @@
       </c>
       <c r="H90" s="11"/>
     </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>95</v>
       </c>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
       <c r="D91" s="13"/>
-      <c r="E91" s="9" t="n">
-        <f aca="false">(B91-C91)*-24-D91</f>
-        <v>-0</v>
+      <c r="E91" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="F91" s="11"/>
       <c r="G91" s="11"/>
@@ -2629,52 +2883,52 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>96</v>
       </c>
       <c r="B92" s="16"/>
       <c r="C92" s="16"/>
       <c r="D92" s="25"/>
-      <c r="E92" s="26" t="n">
-        <f aca="false">(B92-C92)*-24-D92</f>
-        <v>-0</v>
+      <c r="E92" s="26">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="F92" s="20"/>
       <c r="G92" s="20"/>
       <c r="H92" s="20"/>
     </row>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E93" s="27" t="n">
-        <f aca="false">SUM(E86:E92)</f>
-        <v>27.75</v>
+      <c r="E93" s="27">
+        <f>SUM(E86:E92)</f>
+        <v>27.749999999999929</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
     </row>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E94" s="22" t="n">
-        <f aca="false">SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>132.25</v>
+      <c r="E94" s="22">
+        <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
+        <v>132.24999999999989</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
     </row>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>3</v>
       </c>
@@ -2700,15 +2954,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>97</v>
       </c>
       <c r="B96" s="12"/>
       <c r="C96" s="12"/>
       <c r="D96" s="23"/>
-      <c r="E96" s="9" t="n">
-        <f aca="false">(B96-C96)*-24-D96</f>
+      <c r="E96" s="9">
+        <f t="shared" ref="E96:E102" si="9">(B96-C96)*-24-D96</f>
         <v>0</v>
       </c>
       <c r="F96" s="11"/>
@@ -2717,16 +2971,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>98</v>
       </c>
       <c r="B97" s="12"/>
       <c r="C97" s="12"/>
       <c r="D97" s="13"/>
-      <c r="E97" s="9" t="n">
-        <f aca="false">(B97-C97)*-24-D97</f>
-        <v>-0</v>
+      <c r="E97" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="F97" s="11"/>
       <c r="G97" s="11"/>
@@ -2734,16 +2988,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>99</v>
       </c>
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
       <c r="D98" s="13"/>
-      <c r="E98" s="9" t="n">
-        <f aca="false">(B98-C98)*-24-D98</f>
-        <v>-0</v>
+      <c r="E98" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="F98" s="11"/>
       <c r="G98" s="11"/>
@@ -2751,16 +3005,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>100</v>
       </c>
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
       <c r="D99" s="13"/>
-      <c r="E99" s="9" t="n">
-        <f aca="false">(B99-C99)*-24-D99</f>
-        <v>-0</v>
+      <c r="E99" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="F99" s="11"/>
       <c r="G99" s="11"/>
@@ -2768,16 +3022,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>101</v>
       </c>
       <c r="B100" s="12"/>
       <c r="C100" s="12"/>
       <c r="D100" s="13"/>
-      <c r="E100" s="9" t="n">
-        <f aca="false">(B100-C100)*-24-D100</f>
-        <v>-0</v>
+      <c r="E100" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="F100" s="11"/>
       <c r="G100" s="11"/>
@@ -2785,16 +3039,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>102</v>
       </c>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
       <c r="D101" s="13"/>
-      <c r="E101" s="9" t="n">
-        <f aca="false">(B101-C101)*-24-D101</f>
-        <v>-0</v>
+      <c r="E101" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="F101" s="11"/>
       <c r="G101" s="11"/>
@@ -2802,52 +3056,52 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B102" s="16"/>
       <c r="C102" s="16"/>
       <c r="D102" s="25"/>
-      <c r="E102" s="26" t="n">
-        <f aca="false">(B102-C102)*-24-D102</f>
-        <v>-0</v>
+      <c r="E102" s="26">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="F102" s="20"/>
       <c r="G102" s="20"/>
       <c r="H102" s="20"/>
     </row>
-    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E103" s="27" t="n">
-        <f aca="false">SUM(E96:E102)</f>
+      <c r="E103" s="27">
+        <f>SUM(E96:E102)</f>
         <v>0</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
     </row>
-    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E104" s="22" t="n">
-        <f aca="false">SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>132.25</v>
+      <c r="E104" s="22">
+        <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
+        <v>132.24999999999989</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
     </row>
-    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>3</v>
       </c>
@@ -2873,22 +3127,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B106" s="12" t="n">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C106" s="12" t="n">
+      <c r="B106" s="12">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C106" s="12">
         <v>0.75</v>
       </c>
-      <c r="D106" s="23" t="n">
+      <c r="D106" s="23">
         <v>1.5</v>
       </c>
-      <c r="E106" s="9" t="n">
-        <f aca="false">(B106-C106)*-24-D106</f>
-        <v>6.5</v>
+      <c r="E106" s="9">
+        <f t="shared" ref="E106:E112" si="10">(B106-C106)*-24-D106</f>
+        <v>6.4999999999999911</v>
       </c>
       <c r="F106" s="11"/>
       <c r="G106" s="11" t="s">
@@ -2896,22 +3150,22 @@
       </c>
       <c r="H106" s="11"/>
     </row>
-    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B107" s="12" t="n">
+      <c r="B107" s="12">
         <v>0.375</v>
       </c>
-      <c r="C107" s="12" t="n">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D107" s="13" t="n">
+      <c r="C107" s="12">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="D107" s="13">
         <v>1.5</v>
       </c>
-      <c r="E107" s="9" t="n">
-        <f aca="false">(B107-C107)*-24-D107</f>
-        <v>6.5</v>
+      <c r="E107" s="9">
+        <f t="shared" si="10"/>
+        <v>6.4999999999999929</v>
       </c>
       <c r="F107" s="11"/>
       <c r="G107" s="11" t="s">
@@ -2919,22 +3173,22 @@
       </c>
       <c r="H107" s="11"/>
     </row>
-    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B108" s="12" t="n">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C108" s="12" t="n">
-        <v>0.763888888888889</v>
-      </c>
-      <c r="D108" s="13" t="n">
+      <c r="B108" s="12">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C108" s="12">
+        <v>0.76388888888888895</v>
+      </c>
+      <c r="D108" s="13">
         <v>1</v>
       </c>
-      <c r="E108" s="9" t="n">
-        <f aca="false">(B108-C108)*-24-D108</f>
-        <v>7.33333333333333</v>
+      <c r="E108" s="9">
+        <f t="shared" si="10"/>
+        <v>7.3333333333333268</v>
       </c>
       <c r="F108" s="11"/>
       <c r="G108" s="11" t="s">
@@ -2942,22 +3196,22 @@
       </c>
       <c r="H108" s="11"/>
     </row>
-    <row r="109" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B109" s="12" t="n">
+      <c r="B109" s="12">
         <v>0.5</v>
       </c>
-      <c r="C109" s="12" t="n">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D109" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E109" s="9" t="n">
-        <f aca="false">(B109-C109)*-24-D109</f>
-        <v>5</v>
+      <c r="C109" s="12">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="D109" s="13">
+        <v>0</v>
+      </c>
+      <c r="E109" s="9">
+        <f t="shared" si="10"/>
+        <v>4.9999999999999929</v>
       </c>
       <c r="F109" s="11"/>
       <c r="G109" s="11" t="s">
@@ -2965,22 +3219,22 @@
       </c>
       <c r="H109" s="11"/>
     </row>
-    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B110" s="12" t="n">
+      <c r="B110" s="12">
         <v>0.4375</v>
       </c>
-      <c r="C110" s="12" t="n">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D110" s="13" t="n">
+      <c r="C110" s="12">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="D110" s="13">
         <v>1.5</v>
       </c>
-      <c r="E110" s="9" t="n">
-        <f aca="false">(B110-C110)*-24-D110</f>
-        <v>5</v>
+      <c r="E110" s="9">
+        <f t="shared" si="10"/>
+        <v>4.9999999999999929</v>
       </c>
       <c r="F110" s="11"/>
       <c r="G110" s="11" t="s">
@@ -2988,37 +3242,37 @@
       </c>
       <c r="H110" s="11"/>
     </row>
-    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>114</v>
       </c>
       <c r="B111" s="12"/>
       <c r="C111" s="12"/>
       <c r="D111" s="13"/>
-      <c r="E111" s="9" t="n">
-        <f aca="false">(B111-C111)*-24-D111</f>
-        <v>-0</v>
+      <c r="E111" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="F111" s="11"/>
       <c r="G111" s="11"/>
       <c r="H111" s="11"/>
     </row>
-    <row r="112" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B112" s="16" t="n">
+      <c r="B112" s="16">
         <v>0.75</v>
       </c>
-      <c r="C112" s="16" t="n">
-        <v>0.989583333333333</v>
-      </c>
-      <c r="D112" s="25" t="n">
+      <c r="C112" s="16">
+        <v>0.98958333333333304</v>
+      </c>
+      <c r="D112" s="25">
         <v>1.5</v>
       </c>
-      <c r="E112" s="26" t="n">
-        <f aca="false">(B112-C112)*-24-D112</f>
-        <v>4.25</v>
+      <c r="E112" s="26">
+        <f t="shared" si="10"/>
+        <v>4.2499999999999929</v>
       </c>
       <c r="F112" s="20"/>
       <c r="G112" s="20" t="s">
@@ -3026,37 +3280,37 @@
       </c>
       <c r="H112" s="20"/>
     </row>
-    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E113" s="27" t="n">
-        <f aca="false">SUM(E106:E112)</f>
-        <v>34.5833333333333</v>
+      <c r="E113" s="27">
+        <f>SUM(E106:E112)</f>
+        <v>34.583333333333286</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
     </row>
-    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E114" s="22" t="n">
-        <f aca="false">SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>166.833333333333</v>
+      <c r="E114" s="22">
+        <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
+        <v>166.83333333333317</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
     </row>
-    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>3</v>
       </c>
@@ -3082,142 +3336,150 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B116" s="12"/>
-      <c r="C116" s="12"/>
-      <c r="D116" s="23"/>
-      <c r="E116" s="9" t="n">
-        <f aca="false">(B116-C116)*-24-D116</f>
-        <v>0</v>
+      <c r="B116" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="C116" s="12">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="D116" s="23">
+        <v>3</v>
+      </c>
+      <c r="E116" s="9">
+        <f t="shared" ref="E116:E122" si="11">(B116-C116)*-24-D116</f>
+        <v>6.3333333333333321</v>
       </c>
       <c r="F116" s="11"/>
-      <c r="G116" s="11"/>
+      <c r="G116" s="11" t="s">
+        <v>166</v>
+      </c>
       <c r="H116" s="11"/>
     </row>
-    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>118</v>
       </c>
       <c r="B117" s="12"/>
       <c r="C117" s="12"/>
       <c r="D117" s="13"/>
-      <c r="E117" s="9" t="n">
-        <f aca="false">(B117-C117)*-24-D117</f>
-        <v>-0</v>
+      <c r="E117" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="F117" s="11"/>
       <c r="G117" s="11"/>
       <c r="H117" s="11"/>
     </row>
-    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>119</v>
       </c>
       <c r="B118" s="12"/>
       <c r="C118" s="12"/>
       <c r="D118" s="13"/>
-      <c r="E118" s="9" t="n">
-        <f aca="false">(B118-C118)*-24-D118</f>
-        <v>-0</v>
+      <c r="E118" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="F118" s="11"/>
       <c r="G118" s="11"/>
       <c r="H118" s="11"/>
     </row>
-    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>120</v>
       </c>
       <c r="B119" s="12"/>
       <c r="C119" s="12"/>
       <c r="D119" s="13"/>
-      <c r="E119" s="9" t="n">
-        <f aca="false">(B119-C119)*-24-D119</f>
-        <v>-0</v>
+      <c r="E119" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="F119" s="11"/>
       <c r="G119" s="11"/>
       <c r="H119" s="11"/>
     </row>
-    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>121</v>
       </c>
       <c r="B120" s="12"/>
       <c r="C120" s="12"/>
       <c r="D120" s="13"/>
-      <c r="E120" s="9" t="n">
-        <f aca="false">(B120-C120)*-24-D120</f>
-        <v>-0</v>
+      <c r="E120" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="F120" s="11"/>
       <c r="G120" s="11"/>
       <c r="H120" s="11"/>
     </row>
-    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>122</v>
       </c>
       <c r="B121" s="12"/>
       <c r="C121" s="12"/>
       <c r="D121" s="13"/>
-      <c r="E121" s="9" t="n">
-        <f aca="false">(B121-C121)*-24-D121</f>
-        <v>-0</v>
+      <c r="E121" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="F121" s="11"/>
       <c r="G121" s="11"/>
       <c r="H121" s="11"/>
     </row>
-    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>123</v>
       </c>
       <c r="B122" s="16"/>
       <c r="C122" s="16"/>
       <c r="D122" s="25"/>
-      <c r="E122" s="26" t="n">
-        <f aca="false">(B122-C122)*-24-D122</f>
-        <v>-0</v>
+      <c r="E122" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="F122" s="20"/>
       <c r="G122" s="20"/>
       <c r="H122" s="20"/>
     </row>
-    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E123" s="27" t="n">
-        <f aca="false">SUM(E116:E122)</f>
-        <v>0</v>
+      <c r="E123" s="27">
+        <f>SUM(E116:E122)</f>
+        <v>6.3333333333333321</v>
       </c>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
     </row>
-    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E124" s="22" t="n">
-        <f aca="false">SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>166.833333333333</v>
+      <c r="E124" s="22">
+        <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
+        <v>173.16666666666652</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
     </row>
-    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>3</v>
       </c>
@@ -3243,142 +3505,142 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="28" t="s">
         <v>124</v>
       </c>
       <c r="B126" s="12"/>
       <c r="C126" s="12"/>
       <c r="D126" s="23"/>
-      <c r="E126" s="9" t="n">
-        <f aca="false">(B126-C126)*-24-D126</f>
+      <c r="E126" s="9">
+        <f t="shared" ref="E126:E132" si="12">(B126-C126)*-24-D126</f>
         <v>0</v>
       </c>
       <c r="F126" s="11"/>
       <c r="G126" s="11"/>
       <c r="H126" s="11"/>
     </row>
-    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="28" t="s">
         <v>125</v>
       </c>
       <c r="B127" s="12"/>
       <c r="C127" s="12"/>
       <c r="D127" s="13"/>
-      <c r="E127" s="9" t="n">
-        <f aca="false">(B127-C127)*-24-D127</f>
-        <v>-0</v>
+      <c r="E127" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="F127" s="11"/>
       <c r="G127" s="11"/>
       <c r="H127" s="11"/>
     </row>
-    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="28" t="s">
         <v>126</v>
       </c>
       <c r="B128" s="12"/>
       <c r="C128" s="12"/>
       <c r="D128" s="13"/>
-      <c r="E128" s="9" t="n">
-        <f aca="false">(B128-C128)*-24-D128</f>
-        <v>-0</v>
+      <c r="E128" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="F128" s="11"/>
       <c r="G128" s="11"/>
       <c r="H128" s="11"/>
     </row>
-    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="28" t="s">
         <v>127</v>
       </c>
       <c r="B129" s="12"/>
       <c r="C129" s="12"/>
       <c r="D129" s="13"/>
-      <c r="E129" s="9" t="n">
-        <f aca="false">(B129-C129)*-24-D129</f>
-        <v>-0</v>
+      <c r="E129" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="F129" s="11"/>
       <c r="G129" s="11"/>
       <c r="H129" s="11"/>
     </row>
-    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="28" t="s">
         <v>128</v>
       </c>
       <c r="B130" s="12"/>
       <c r="C130" s="12"/>
       <c r="D130" s="13"/>
-      <c r="E130" s="9" t="n">
-        <f aca="false">(B130-C130)*-24-D130</f>
-        <v>-0</v>
+      <c r="E130" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="F130" s="11"/>
       <c r="G130" s="11"/>
       <c r="H130" s="11"/>
     </row>
-    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="28" t="s">
         <v>129</v>
       </c>
       <c r="B131" s="12"/>
       <c r="C131" s="12"/>
       <c r="D131" s="13"/>
-      <c r="E131" s="9" t="n">
-        <f aca="false">(B131-C131)*-24-D131</f>
-        <v>-0</v>
+      <c r="E131" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="F131" s="11"/>
       <c r="G131" s="11"/>
       <c r="H131" s="11"/>
     </row>
-    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="28" t="s">
         <v>130</v>
       </c>
       <c r="B132" s="16"/>
       <c r="C132" s="16"/>
       <c r="D132" s="25"/>
-      <c r="E132" s="26" t="n">
-        <f aca="false">(B132-C132)*-24-D132</f>
-        <v>-0</v>
+      <c r="E132" s="26">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="F132" s="20"/>
       <c r="G132" s="20"/>
       <c r="H132" s="20"/>
     </row>
-    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E133" s="27" t="n">
-        <f aca="false">SUM(E126:E132)</f>
+      <c r="E133" s="27">
+        <f>SUM(E126:E132)</f>
         <v>0</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
     </row>
-    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E134" s="22" t="n">
-        <f aca="false">SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>166.833333333333</v>
+      <c r="E134" s="22">
+        <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
+        <v>173.16666666666652</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
     </row>
-    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>3</v>
       </c>
@@ -3404,142 +3666,142 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="28" t="s">
         <v>131</v>
       </c>
       <c r="B136" s="12"/>
       <c r="C136" s="12"/>
       <c r="D136" s="23"/>
-      <c r="E136" s="9" t="n">
-        <f aca="false">(B136-C136)*-24-D136</f>
+      <c r="E136" s="9">
+        <f t="shared" ref="E136:E142" si="13">(B136-C136)*-24-D136</f>
         <v>0</v>
       </c>
       <c r="F136" s="11"/>
       <c r="G136" s="11"/>
       <c r="H136" s="11"/>
     </row>
-    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="28" t="s">
         <v>132</v>
       </c>
       <c r="B137" s="12"/>
       <c r="C137" s="12"/>
       <c r="D137" s="13"/>
-      <c r="E137" s="9" t="n">
-        <f aca="false">(B137-C137)*-24-D137</f>
-        <v>-0</v>
+      <c r="E137" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="F137" s="11"/>
       <c r="G137" s="11"/>
       <c r="H137" s="11"/>
     </row>
-    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="28" t="s">
         <v>133</v>
       </c>
       <c r="B138" s="12"/>
       <c r="C138" s="12"/>
       <c r="D138" s="13"/>
-      <c r="E138" s="9" t="n">
-        <f aca="false">(B138-C138)*-24-D138</f>
-        <v>-0</v>
+      <c r="E138" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="F138" s="11"/>
       <c r="G138" s="11"/>
       <c r="H138" s="11"/>
     </row>
-    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="28" t="s">
         <v>134</v>
       </c>
       <c r="B139" s="12"/>
       <c r="C139" s="12"/>
       <c r="D139" s="13"/>
-      <c r="E139" s="9" t="n">
-        <f aca="false">(B139-C139)*-24-D139</f>
-        <v>-0</v>
+      <c r="E139" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="F139" s="11"/>
       <c r="G139" s="11"/>
       <c r="H139" s="11"/>
     </row>
-    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="28" t="s">
         <v>135</v>
       </c>
       <c r="B140" s="12"/>
       <c r="C140" s="12"/>
       <c r="D140" s="13"/>
-      <c r="E140" s="9" t="n">
-        <f aca="false">(B140-C140)*-24-D140</f>
-        <v>-0</v>
+      <c r="E140" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="F140" s="11"/>
       <c r="G140" s="11"/>
       <c r="H140" s="11"/>
     </row>
-    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="28" t="s">
         <v>136</v>
       </c>
       <c r="B141" s="12"/>
       <c r="C141" s="12"/>
       <c r="D141" s="13"/>
-      <c r="E141" s="9" t="n">
-        <f aca="false">(B141-C141)*-24-D141</f>
-        <v>-0</v>
+      <c r="E141" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="F141" s="11"/>
       <c r="G141" s="11"/>
       <c r="H141" s="11"/>
     </row>
-    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="28" t="s">
         <v>137</v>
       </c>
       <c r="B142" s="16"/>
       <c r="C142" s="16"/>
       <c r="D142" s="25"/>
-      <c r="E142" s="26" t="n">
-        <f aca="false">(B142-C142)*-24-D142</f>
-        <v>-0</v>
+      <c r="E142" s="26">
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="F142" s="20"/>
       <c r="G142" s="20"/>
       <c r="H142" s="20"/>
     </row>
-    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E143" s="27" t="n">
-        <f aca="false">SUM(E136:E142)</f>
+      <c r="E143" s="27">
+        <f>SUM(E136:E142)</f>
         <v>0</v>
       </c>
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
     </row>
-    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E144" s="22" t="n">
-        <f aca="false">SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>166.833333333333</v>
+      <c r="E144" s="22">
+        <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
+        <v>173.16666666666652</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
     </row>
-    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>3</v>
       </c>
@@ -3565,142 +3827,142 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="28" t="s">
         <v>138</v>
       </c>
       <c r="B146" s="12"/>
       <c r="C146" s="12"/>
       <c r="D146" s="23"/>
-      <c r="E146" s="9" t="n">
-        <f aca="false">(B146-C146)*-24-D146</f>
+      <c r="E146" s="9">
+        <f t="shared" ref="E146:E152" si="14">(B146-C146)*-24-D146</f>
         <v>0</v>
       </c>
       <c r="F146" s="11"/>
       <c r="G146" s="11"/>
       <c r="H146" s="11"/>
     </row>
-    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="28" t="s">
         <v>139</v>
       </c>
       <c r="B147" s="12"/>
       <c r="C147" s="12"/>
       <c r="D147" s="13"/>
-      <c r="E147" s="9" t="n">
-        <f aca="false">(B147-C147)*-24-D147</f>
-        <v>-0</v>
+      <c r="E147" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="F147" s="11"/>
       <c r="G147" s="11"/>
       <c r="H147" s="11"/>
     </row>
-    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="28" t="s">
         <v>140</v>
       </c>
       <c r="B148" s="12"/>
       <c r="C148" s="12"/>
       <c r="D148" s="13"/>
-      <c r="E148" s="9" t="n">
-        <f aca="false">(B148-C148)*-24-D148</f>
-        <v>-0</v>
+      <c r="E148" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="F148" s="11"/>
       <c r="G148" s="11"/>
       <c r="H148" s="11"/>
     </row>
-    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="28" t="s">
         <v>141</v>
       </c>
       <c r="B149" s="12"/>
       <c r="C149" s="12"/>
       <c r="D149" s="13"/>
-      <c r="E149" s="9" t="n">
-        <f aca="false">(B149-C149)*-24-D149</f>
-        <v>-0</v>
+      <c r="E149" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="F149" s="11"/>
       <c r="G149" s="11"/>
       <c r="H149" s="11"/>
     </row>
-    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="28" t="s">
         <v>142</v>
       </c>
       <c r="B150" s="12"/>
       <c r="C150" s="12"/>
       <c r="D150" s="13"/>
-      <c r="E150" s="9" t="n">
-        <f aca="false">(B150-C150)*-24-D150</f>
-        <v>-0</v>
+      <c r="E150" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="F150" s="11"/>
       <c r="G150" s="11"/>
       <c r="H150" s="11"/>
     </row>
-    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="28" t="s">
         <v>143</v>
       </c>
       <c r="B151" s="12"/>
       <c r="C151" s="12"/>
       <c r="D151" s="13"/>
-      <c r="E151" s="9" t="n">
-        <f aca="false">(B151-C151)*-24-D151</f>
-        <v>-0</v>
+      <c r="E151" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="F151" s="11"/>
       <c r="G151" s="11"/>
       <c r="H151" s="11"/>
     </row>
-    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="28" t="s">
         <v>144</v>
       </c>
       <c r="B152" s="16"/>
       <c r="C152" s="16"/>
       <c r="D152" s="25"/>
-      <c r="E152" s="26" t="n">
-        <f aca="false">(B152-C152)*-24-D152</f>
-        <v>-0</v>
+      <c r="E152" s="26">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="F152" s="20"/>
       <c r="G152" s="20"/>
       <c r="H152" s="20"/>
     </row>
-    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E153" s="27" t="n">
-        <f aca="false">SUM(E146:E152)</f>
+      <c r="E153" s="27">
+        <f>SUM(E146:E152)</f>
         <v>0</v>
       </c>
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
       <c r="H153" s="2"/>
     </row>
-    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E154" s="22" t="n">
-        <f aca="false">SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>166.833333333333</v>
+      <c r="E154" s="22">
+        <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
+        <v>173.16666666666652</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
     </row>
-    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
         <v>3</v>
       </c>
@@ -3726,141 +3988,141 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="28" t="s">
         <v>145</v>
       </c>
       <c r="B156" s="12"/>
       <c r="C156" s="12"/>
       <c r="D156" s="23"/>
-      <c r="E156" s="9" t="n">
-        <f aca="false">(B156-C156)*-24-D156</f>
+      <c r="E156" s="9">
+        <f t="shared" ref="E156:E161" si="15">(B156-C156)*-24-D156</f>
         <v>0</v>
       </c>
       <c r="F156" s="11"/>
       <c r="G156" s="11"/>
       <c r="H156" s="11"/>
     </row>
-    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="28" t="s">
         <v>146</v>
       </c>
       <c r="B157" s="12"/>
       <c r="C157" s="12"/>
       <c r="D157" s="13"/>
-      <c r="E157" s="9" t="n">
-        <f aca="false">(B157-C157)*-24-D157</f>
-        <v>-0</v>
+      <c r="E157" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="F157" s="11"/>
       <c r="G157" s="11"/>
       <c r="H157" s="11"/>
     </row>
-    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="28" t="s">
         <v>147</v>
       </c>
       <c r="B158" s="12"/>
       <c r="C158" s="12"/>
       <c r="D158" s="13"/>
-      <c r="E158" s="9" t="n">
-        <f aca="false">(B158-C158)*-24-D158</f>
-        <v>-0</v>
+      <c r="E158" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="F158" s="11"/>
       <c r="G158" s="11"/>
       <c r="H158" s="11"/>
     </row>
-    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="28" t="s">
         <v>148</v>
       </c>
       <c r="B159" s="12"/>
       <c r="C159" s="12"/>
       <c r="D159" s="13"/>
-      <c r="E159" s="9" t="n">
-        <f aca="false">(B159-C159)*-24-D159</f>
-        <v>-0</v>
+      <c r="E159" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="F159" s="11"/>
       <c r="G159" s="11"/>
       <c r="H159" s="11"/>
     </row>
-    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="28" t="s">
         <v>149</v>
       </c>
       <c r="B160" s="12"/>
       <c r="C160" s="12"/>
       <c r="D160" s="13"/>
-      <c r="E160" s="9" t="n">
-        <f aca="false">(B160-C160)*-24-D160</f>
-        <v>-0</v>
+      <c r="E160" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="F160" s="11"/>
       <c r="G160" s="11"/>
       <c r="H160" s="11"/>
     </row>
-    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="28" t="s">
         <v>150</v>
       </c>
       <c r="B161" s="12"/>
       <c r="C161" s="12"/>
       <c r="D161" s="13"/>
-      <c r="E161" s="9" t="n">
-        <f aca="false">(B161-C161)*-24-D161</f>
-        <v>-0</v>
+      <c r="E161" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="F161" s="11"/>
       <c r="G161" s="11"/>
       <c r="H161" s="11"/>
     </row>
-    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="28" t="s">
         <v>151</v>
       </c>
       <c r="B162" s="16"/>
       <c r="C162" s="16"/>
       <c r="D162" s="25"/>
-      <c r="E162" s="25" t="n">
+      <c r="E162" s="25">
         <v>0</v>
       </c>
       <c r="F162" s="20"/>
       <c r="G162" s="20"/>
       <c r="H162" s="20"/>
     </row>
-    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E163" s="27" t="n">
-        <f aca="false">SUM(E156:E162)</f>
+      <c r="E163" s="27">
+        <f>SUM(E156:E162)</f>
         <v>0</v>
       </c>
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
       <c r="H163" s="2"/>
     </row>
-    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E164" s="22" t="n">
-        <f aca="false">SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>166.833333333333</v>
+      <c r="E164" s="22">
+        <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
+        <v>173.16666666666652</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
       <c r="H164" s="3"/>
     </row>
-    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
         <v>3</v>
       </c>
@@ -3886,142 +4148,142 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="28" t="s">
         <v>152</v>
       </c>
       <c r="B166" s="12"/>
       <c r="C166" s="12"/>
       <c r="D166" s="23"/>
-      <c r="E166" s="9" t="n">
-        <f aca="false">(B166-C166)*-24-D166</f>
+      <c r="E166" s="9">
+        <f t="shared" ref="E166:E172" si="16">(B166-C166)*-24-D166</f>
         <v>0</v>
       </c>
       <c r="F166" s="11"/>
       <c r="G166" s="11"/>
       <c r="H166" s="11"/>
     </row>
-    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="28" t="s">
         <v>153</v>
       </c>
       <c r="B167" s="12"/>
       <c r="C167" s="12"/>
       <c r="D167" s="13"/>
-      <c r="E167" s="9" t="n">
-        <f aca="false">(B167-C167)*-24-D167</f>
-        <v>-0</v>
+      <c r="E167" s="9">
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="F167" s="11"/>
       <c r="G167" s="11"/>
       <c r="H167" s="11"/>
     </row>
-    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="28" t="s">
         <v>154</v>
       </c>
       <c r="B168" s="12"/>
       <c r="C168" s="12"/>
       <c r="D168" s="13"/>
-      <c r="E168" s="9" t="n">
-        <f aca="false">(B168-C168)*-24-D168</f>
-        <v>-0</v>
+      <c r="E168" s="9">
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="F168" s="11"/>
       <c r="G168" s="11"/>
       <c r="H168" s="11"/>
     </row>
-    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="28" t="s">
         <v>155</v>
       </c>
       <c r="B169" s="12"/>
       <c r="C169" s="12"/>
       <c r="D169" s="13"/>
-      <c r="E169" s="9" t="n">
-        <f aca="false">(B169-C169)*-24-D169</f>
-        <v>-0</v>
+      <c r="E169" s="9">
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="F169" s="11"/>
       <c r="G169" s="11"/>
       <c r="H169" s="11"/>
     </row>
-    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="28" t="s">
         <v>156</v>
       </c>
       <c r="B170" s="12"/>
       <c r="C170" s="12"/>
       <c r="D170" s="13"/>
-      <c r="E170" s="9" t="n">
-        <f aca="false">(B170-C170)*-24-D170</f>
-        <v>-0</v>
+      <c r="E170" s="9">
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="F170" s="11"/>
       <c r="G170" s="11"/>
       <c r="H170" s="11"/>
     </row>
-    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="28" t="s">
         <v>157</v>
       </c>
       <c r="B171" s="12"/>
       <c r="C171" s="12"/>
       <c r="D171" s="13"/>
-      <c r="E171" s="9" t="n">
-        <f aca="false">(B171-C171)*-24-D171</f>
-        <v>-0</v>
+      <c r="E171" s="9">
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="F171" s="11"/>
       <c r="G171" s="11"/>
       <c r="H171" s="11"/>
     </row>
-    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="28" t="s">
         <v>158</v>
       </c>
       <c r="B172" s="16"/>
       <c r="C172" s="16"/>
       <c r="D172" s="25"/>
-      <c r="E172" s="26" t="n">
-        <f aca="false">(B172-C172)*-24-D172</f>
-        <v>-0</v>
+      <c r="E172" s="26">
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="F172" s="20"/>
       <c r="G172" s="20"/>
       <c r="H172" s="20"/>
     </row>
-    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E173" s="27" t="n">
-        <f aca="false">SUM(E166:E172)</f>
+      <c r="E173" s="27">
+        <f>SUM(E166:E172)</f>
         <v>0</v>
       </c>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
       <c r="H173" s="2"/>
     </row>
-    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E174" s="22" t="n">
-        <f aca="false">SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>166.833333333333</v>
+      <c r="E174" s="22">
+        <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
+        <v>173.16666666666652</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
     </row>
-    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>3</v>
       </c>
@@ -4047,148 +4309,143 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="28" t="s">
         <v>159</v>
       </c>
       <c r="B176" s="12"/>
       <c r="C176" s="12"/>
       <c r="D176" s="23"/>
-      <c r="E176" s="9" t="n">
-        <f aca="false">(B176-C176)*-24-D176</f>
+      <c r="E176" s="9">
+        <f t="shared" ref="E176:E182" si="17">(B176-C176)*-24-D176</f>
         <v>0</v>
       </c>
       <c r="F176" s="11"/>
       <c r="G176" s="11"/>
       <c r="H176" s="11"/>
     </row>
-    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="28" t="s">
         <v>160</v>
       </c>
       <c r="B177" s="12"/>
       <c r="C177" s="12"/>
       <c r="D177" s="13"/>
-      <c r="E177" s="9" t="n">
-        <f aca="false">(B177-C177)*-24-D177</f>
-        <v>-0</v>
+      <c r="E177" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="F177" s="11"/>
       <c r="G177" s="11"/>
       <c r="H177" s="11"/>
     </row>
-    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="28" t="s">
         <v>161</v>
       </c>
       <c r="B178" s="12"/>
       <c r="C178" s="12"/>
       <c r="D178" s="13"/>
-      <c r="E178" s="9" t="n">
-        <f aca="false">(B178-C178)*-24-D178</f>
-        <v>-0</v>
+      <c r="E178" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="F178" s="11"/>
       <c r="G178" s="11"/>
       <c r="H178" s="11"/>
     </row>
-    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="28" t="s">
         <v>162</v>
       </c>
       <c r="B179" s="12"/>
       <c r="C179" s="12"/>
       <c r="D179" s="13"/>
-      <c r="E179" s="9" t="n">
-        <f aca="false">(B179-C179)*-24-D179</f>
-        <v>-0</v>
+      <c r="E179" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="F179" s="11"/>
       <c r="G179" s="11"/>
       <c r="H179" s="11"/>
     </row>
-    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="28" t="s">
         <v>163</v>
       </c>
       <c r="B180" s="12"/>
       <c r="C180" s="12"/>
       <c r="D180" s="13"/>
-      <c r="E180" s="9" t="n">
-        <f aca="false">(B180-C180)*-24-D180</f>
-        <v>-0</v>
+      <c r="E180" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="F180" s="11"/>
       <c r="G180" s="11"/>
       <c r="H180" s="11"/>
     </row>
-    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="28" t="s">
         <v>164</v>
       </c>
       <c r="B181" s="12"/>
       <c r="C181" s="12"/>
       <c r="D181" s="13"/>
-      <c r="E181" s="9" t="n">
-        <f aca="false">(B181-C181)*-24-D181</f>
-        <v>-0</v>
+      <c r="E181" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="F181" s="11"/>
       <c r="G181" s="11"/>
       <c r="H181" s="11"/>
     </row>
-    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="28" t="s">
         <v>165</v>
       </c>
       <c r="B182" s="16"/>
       <c r="C182" s="16"/>
       <c r="D182" s="25"/>
-      <c r="E182" s="26" t="n">
-        <f aca="false">(B182-C182)*-24-D182</f>
-        <v>-0</v>
+      <c r="E182" s="26">
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="F182" s="20"/>
       <c r="G182" s="20"/>
       <c r="H182" s="20"/>
     </row>
-    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E183" s="27" t="n">
-        <f aca="false">SUM(E176:E182)</f>
+      <c r="E183" s="27">
+        <f>SUM(E176:E182)</f>
         <v>0</v>
       </c>
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
       <c r="H183" s="2"/>
     </row>
-    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E184" s="27" t="n">
-        <f aca="false">SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>166.833333333333</v>
+      <c r="E184" s="27">
+        <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
+        <v>173.16666666666652</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
       <c r="H184" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
+++ b/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="168">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -521,6 +521,9 @@
   </si>
   <si>
     <t>Lighting</t>
+  </si>
+  <si>
+    <t>Lighting Implementation &amp; Test</t>
   </si>
 </sst>
 </file>
@@ -1190,7 +1193,7 @@
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+      <selection activeCell="G117" sqref="G117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3359,19 +3362,27 @@
       </c>
       <c r="H116" s="11"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B117" s="12"/>
-      <c r="C117" s="12"/>
-      <c r="D117" s="13"/>
+      <c r="B117" s="12">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C117" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D117" s="13">
+        <v>2</v>
+      </c>
       <c r="E117" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4.0000000000000018</v>
       </c>
       <c r="F117" s="11"/>
-      <c r="G117" s="11"/>
+      <c r="G117" s="11" t="s">
+        <v>167</v>
+      </c>
       <c r="H117" s="11"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -3458,7 +3469,7 @@
       </c>
       <c r="E123" s="27">
         <f>SUM(E116:E122)</f>
-        <v>6.3333333333333321</v>
+        <v>10.333333333333334</v>
       </c>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
@@ -3473,7 +3484,7 @@
       </c>
       <c r="E124" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>173.16666666666652</v>
+        <v>177.16666666666652</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3634,7 +3645,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>173.16666666666652</v>
+        <v>177.16666666666652</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3795,7 +3806,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>173.16666666666652</v>
+        <v>177.16666666666652</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3956,7 +3967,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>173.16666666666652</v>
+        <v>177.16666666666652</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -4116,7 +4127,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>173.16666666666652</v>
+        <v>177.16666666666652</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4277,7 +4288,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>173.16666666666652</v>
+        <v>177.16666666666652</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4438,7 +4449,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>173.16666666666652</v>
+        <v>177.16666666666652</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
+++ b/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="169">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -524,6 +524,9 @@
   </si>
   <si>
     <t>Lighting Implementation &amp; Test</t>
+  </si>
+  <si>
+    <t>GDD Update</t>
   </si>
 </sst>
 </file>
@@ -1193,7 +1196,7 @@
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G117" sqref="G117"/>
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3389,15 +3392,23 @@
       <c r="A118" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B118" s="12"/>
-      <c r="C118" s="12"/>
-      <c r="D118" s="13"/>
+      <c r="B118" s="12">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C118" s="12">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D118" s="13">
+        <v>1</v>
+      </c>
       <c r="E118" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="F118" s="11"/>
-      <c r="G118" s="11"/>
+      <c r="G118" s="11" t="s">
+        <v>168</v>
+      </c>
       <c r="H118" s="11"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -3469,7 +3480,7 @@
       </c>
       <c r="E123" s="27">
         <f>SUM(E116:E122)</f>
-        <v>10.333333333333334</v>
+        <v>15.833333333333334</v>
       </c>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
@@ -3484,7 +3495,7 @@
       </c>
       <c r="E124" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>177.16666666666652</v>
+        <v>182.66666666666652</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3645,7 +3656,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>177.16666666666652</v>
+        <v>182.66666666666652</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3806,7 +3817,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>177.16666666666652</v>
+        <v>182.66666666666652</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3967,7 +3978,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>177.16666666666652</v>
+        <v>182.66666666666652</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -4127,7 +4138,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>177.16666666666652</v>
+        <v>182.66666666666652</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4288,7 +4299,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>177.16666666666652</v>
+        <v>182.66666666666652</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4449,7 +4460,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>177.16666666666652</v>
+        <v>182.66666666666652</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
+++ b/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="170">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -527,6 +527,9 @@
   </si>
   <si>
     <t>GDD Update</t>
+  </si>
+  <si>
+    <t>GDD Update, Prefabs Updated</t>
   </si>
 </sst>
 </file>
@@ -1196,7 +1199,7 @@
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+      <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3411,19 +3414,27 @@
       </c>
       <c r="H118" s="11"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B119" s="12"/>
-      <c r="C119" s="12"/>
-      <c r="D119" s="13"/>
+      <c r="B119" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C119" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D119" s="13">
+        <v>1</v>
+      </c>
       <c r="E119" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F119" s="11"/>
-      <c r="G119" s="11"/>
+      <c r="G119" s="11" t="s">
+        <v>169</v>
+      </c>
       <c r="H119" s="11"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -3480,7 +3491,7 @@
       </c>
       <c r="E123" s="27">
         <f>SUM(E116:E122)</f>
-        <v>15.833333333333334</v>
+        <v>21.833333333333336</v>
       </c>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
@@ -3495,7 +3506,7 @@
       </c>
       <c r="E124" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>182.66666666666652</v>
+        <v>188.66666666666652</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3656,7 +3667,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>182.66666666666652</v>
+        <v>188.66666666666652</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3817,7 +3828,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>182.66666666666652</v>
+        <v>188.66666666666652</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3978,7 +3989,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>182.66666666666652</v>
+        <v>188.66666666666652</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -4138,7 +4149,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>182.66666666666652</v>
+        <v>188.66666666666652</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4299,7 +4310,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>182.66666666666652</v>
+        <v>188.66666666666652</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4460,7 +4471,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>182.66666666666652</v>
+        <v>188.66666666666652</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
+++ b/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="170">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -1198,8 +1198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B120" sqref="B120"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3441,15 +3441,23 @@
       <c r="A120" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B120" s="12"/>
-      <c r="C120" s="12"/>
-      <c r="D120" s="13"/>
+      <c r="B120" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="C120" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D120" s="13">
+        <v>1</v>
+      </c>
       <c r="E120" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>5.9999999999999991</v>
       </c>
       <c r="F120" s="11"/>
-      <c r="G120" s="11"/>
+      <c r="G120" s="11" t="s">
+        <v>168</v>
+      </c>
       <c r="H120" s="11"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -3491,7 +3499,7 @@
       </c>
       <c r="E123" s="27">
         <f>SUM(E116:E122)</f>
-        <v>21.833333333333336</v>
+        <v>27.833333333333336</v>
       </c>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
@@ -3506,7 +3514,7 @@
       </c>
       <c r="E124" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>188.66666666666652</v>
+        <v>194.66666666666652</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3667,7 +3675,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>188.66666666666652</v>
+        <v>194.66666666666652</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3828,7 +3836,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>188.66666666666652</v>
+        <v>194.66666666666652</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3989,7 +3997,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>188.66666666666652</v>
+        <v>194.66666666666652</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -4149,7 +4157,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>188.66666666666652</v>
+        <v>194.66666666666652</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4310,7 +4318,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>188.66666666666652</v>
+        <v>194.66666666666652</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4471,7 +4479,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>188.66666666666652</v>
+        <v>194.66666666666652</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
+++ b/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="171">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -530,6 +530,9 @@
   </si>
   <si>
     <t>GDD Update, Prefabs Updated</t>
+  </si>
+  <si>
+    <t>GDD updated</t>
   </si>
 </sst>
 </file>
@@ -1199,7 +1202,7 @@
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121"/>
+      <selection activeCell="G127" sqref="G127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3550,15 +3553,23 @@
       <c r="A126" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="B126" s="12"/>
-      <c r="C126" s="12"/>
-      <c r="D126" s="23"/>
+      <c r="B126" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C126" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="D126" s="23">
+        <v>1</v>
+      </c>
       <c r="E126" s="9">
         <f t="shared" ref="E126:E132" si="12">(B126-C126)*-24-D126</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F126" s="11"/>
-      <c r="G126" s="11"/>
+      <c r="G126" s="11" t="s">
+        <v>170</v>
+      </c>
       <c r="H126" s="11"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -3660,7 +3671,7 @@
       </c>
       <c r="E133" s="27">
         <f>SUM(E126:E132)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
@@ -3675,7 +3686,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>194.66666666666652</v>
+        <v>201.66666666666652</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3836,7 +3847,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>194.66666666666652</v>
+        <v>201.66666666666652</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3997,7 +4008,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>194.66666666666652</v>
+        <v>201.66666666666652</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -4157,7 +4168,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>194.66666666666652</v>
+        <v>201.66666666666652</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4318,7 +4329,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>194.66666666666652</v>
+        <v>201.66666666666652</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4479,7 +4490,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>194.66666666666652</v>
+        <v>201.66666666666652</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
+++ b/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="172">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -533,6 +533,9 @@
   </si>
   <si>
     <t>GDD updated</t>
+  </si>
+  <si>
+    <t>GDD Update, Audio + VFX, Balancing</t>
   </si>
 </sst>
 </file>
@@ -1202,7 +1205,7 @@
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G127" sqref="G127"/>
+      <selection activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3572,19 +3575,27 @@
       </c>
       <c r="H126" s="11"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A127" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="B127" s="12"/>
-      <c r="C127" s="12"/>
-      <c r="D127" s="13"/>
+      <c r="B127" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="C127" s="12">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D127" s="13">
+        <v>2</v>
+      </c>
       <c r="E127" s="9">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="F127" s="11"/>
-      <c r="G127" s="11"/>
+      <c r="G127" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="H127" s="11"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -3671,7 +3682,7 @@
       </c>
       <c r="E133" s="27">
         <f>SUM(E126:E132)</f>
-        <v>7</v>
+        <v>13.5</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
@@ -3686,7 +3697,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>201.66666666666652</v>
+        <v>208.16666666666652</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3847,7 +3858,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>201.66666666666652</v>
+        <v>208.16666666666652</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -4008,7 +4019,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>201.66666666666652</v>
+        <v>208.16666666666652</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -4168,7 +4179,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>201.66666666666652</v>
+        <v>208.16666666666652</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4329,7 +4340,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>201.66666666666652</v>
+        <v>208.16666666666652</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4490,7 +4501,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>201.66666666666652</v>
+        <v>208.16666666666652</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
+++ b/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="173">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -536,6 +536,9 @@
   </si>
   <si>
     <t>GDD Update, Audio + VFX, Balancing</t>
+  </si>
+  <si>
+    <t>Bugfixing</t>
   </si>
 </sst>
 </file>
@@ -1205,7 +1208,7 @@
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B128" sqref="B128"/>
+      <selection activeCell="H129" sqref="H129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3602,30 +3605,46 @@
       <c r="A128" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="B128" s="12"/>
-      <c r="C128" s="12"/>
-      <c r="D128" s="13"/>
+      <c r="B128" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C128" s="12">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D128" s="13">
+        <v>2</v>
+      </c>
       <c r="E128" s="9">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F128" s="11"/>
-      <c r="G128" s="11"/>
+      <c r="G128" s="11" t="s">
+        <v>172</v>
+      </c>
       <c r="H128" s="11"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="B129" s="12"/>
-      <c r="C129" s="12"/>
-      <c r="D129" s="13"/>
+      <c r="B129" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C129" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="D129" s="13">
+        <v>3</v>
+      </c>
       <c r="E129" s="9">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F129" s="11"/>
-      <c r="G129" s="11"/>
+      <c r="G129" s="11" t="s">
+        <v>172</v>
+      </c>
       <c r="H129" s="11"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -3682,7 +3701,7 @@
       </c>
       <c r="E133" s="27">
         <f>SUM(E126:E132)</f>
-        <v>13.5</v>
+        <v>22.5</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
@@ -3697,7 +3716,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>208.16666666666652</v>
+        <v>217.16666666666652</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3858,7 +3877,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>208.16666666666652</v>
+        <v>217.16666666666652</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -4019,7 +4038,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>208.16666666666652</v>
+        <v>217.16666666666652</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -4179,7 +4198,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>208.16666666666652</v>
+        <v>217.16666666666652</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4340,7 +4359,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>208.16666666666652</v>
+        <v>217.16666666666652</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4501,7 +4520,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>208.16666666666652</v>
+        <v>217.16666666666652</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
+++ b/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="173">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -1207,8 +1207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H129" sqref="H129"/>
+    <sheetView tabSelected="1" topLeftCell="A117" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H128" sqref="H128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3651,15 +3651,23 @@
       <c r="A130" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="B130" s="12"/>
-      <c r="C130" s="12"/>
-      <c r="D130" s="13"/>
+      <c r="B130" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C130" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D130" s="13">
+        <v>1</v>
+      </c>
       <c r="E130" s="9">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>4.9999999999999982</v>
       </c>
       <c r="F130" s="11"/>
-      <c r="G130" s="11"/>
+      <c r="G130" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="H130" s="11"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -3701,7 +3709,7 @@
       </c>
       <c r="E133" s="27">
         <f>SUM(E126:E132)</f>
-        <v>22.5</v>
+        <v>27.5</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
@@ -3716,7 +3724,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>217.16666666666652</v>
+        <v>222.16666666666652</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3877,7 +3885,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>217.16666666666652</v>
+        <v>222.16666666666652</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -4038,7 +4046,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>217.16666666666652</v>
+        <v>222.16666666666652</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -4198,7 +4206,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>217.16666666666652</v>
+        <v>222.16666666666652</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4359,7 +4367,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>217.16666666666652</v>
+        <v>222.16666666666652</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4520,7 +4528,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>217.16666666666652</v>
+        <v>222.16666666666652</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
+++ b/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="174">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -539,6 +539,9 @@
   </si>
   <si>
     <t>Bugfixing</t>
+  </si>
+  <si>
+    <t>Meeting + Feedback</t>
   </si>
 </sst>
 </file>
@@ -1207,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H128" sqref="H128"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B147" sqref="B147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3769,7 +3772,9 @@
       </c>
       <c r="F136" s="11"/>
       <c r="G136" s="11"/>
-      <c r="H136" s="11"/>
+      <c r="H136" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="28" t="s">
@@ -3784,7 +3789,9 @@
       </c>
       <c r="F137" s="11"/>
       <c r="G137" s="11"/>
-      <c r="H137" s="11"/>
+      <c r="H137" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="28" t="s">
@@ -3799,7 +3806,9 @@
       </c>
       <c r="F138" s="11"/>
       <c r="G138" s="11"/>
-      <c r="H138" s="11"/>
+      <c r="H138" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="28" t="s">
@@ -3814,7 +3823,9 @@
       </c>
       <c r="F139" s="11"/>
       <c r="G139" s="11"/>
-      <c r="H139" s="11"/>
+      <c r="H139" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="28" t="s">
@@ -3829,7 +3840,9 @@
       </c>
       <c r="F140" s="11"/>
       <c r="G140" s="11"/>
-      <c r="H140" s="11"/>
+      <c r="H140" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="28" t="s">
@@ -3921,15 +3934,21 @@
       <c r="A146" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="B146" s="12"/>
-      <c r="C146" s="12"/>
+      <c r="B146" s="12">
+        <v>0.6875</v>
+      </c>
+      <c r="C146" s="12">
+        <v>0.8125</v>
+      </c>
       <c r="D146" s="23"/>
       <c r="E146" s="9">
         <f t="shared" ref="E146:E152" si="14">(B146-C146)*-24-D146</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F146" s="11"/>
-      <c r="G146" s="11"/>
+      <c r="G146" s="11" t="s">
+        <v>173</v>
+      </c>
       <c r="H146" s="11"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -4031,7 +4050,7 @@
       </c>
       <c r="E153" s="27">
         <f>SUM(E146:E152)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
@@ -4046,7 +4065,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>222.16666666666652</v>
+        <v>225.16666666666652</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -4206,7 +4225,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>222.16666666666652</v>
+        <v>225.16666666666652</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4367,7 +4386,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>222.16666666666652</v>
+        <v>225.16666666666652</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4528,7 +4547,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>222.16666666666652</v>
+        <v>225.16666666666652</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
+++ b/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="176">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -542,6 +542,12 @@
   </si>
   <si>
     <t>Meeting + Feedback</t>
+  </si>
+  <si>
+    <t>Meeting</t>
+  </si>
+  <si>
+    <t>Feedbacks durchgearbeitet</t>
   </si>
 </sst>
 </file>
@@ -1211,7 +1217,7 @@
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A123" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B147" sqref="B147"/>
+      <selection activeCell="B149" sqref="B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3955,30 +3961,44 @@
       <c r="A147" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="B147" s="12"/>
-      <c r="C147" s="12"/>
+      <c r="B147" s="12">
+        <v>0.6875</v>
+      </c>
+      <c r="C147" s="12">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="D147" s="13"/>
       <c r="E147" s="9">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2.0000000000000009</v>
       </c>
       <c r="F147" s="11"/>
-      <c r="G147" s="11"/>
+      <c r="G147" s="11" t="s">
+        <v>174</v>
+      </c>
       <c r="H147" s="11"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A148" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="B148" s="12"/>
-      <c r="C148" s="12"/>
-      <c r="D148" s="13"/>
+      <c r="B148" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C148" s="12">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D148" s="13">
+        <v>1</v>
+      </c>
       <c r="E148" s="9">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>6.4999999999999982</v>
       </c>
       <c r="F148" s="11"/>
-      <c r="G148" s="11"/>
+      <c r="G148" s="11" t="s">
+        <v>175</v>
+      </c>
       <c r="H148" s="11"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -4050,7 +4070,7 @@
       </c>
       <c r="E153" s="27">
         <f>SUM(E146:E152)</f>
-        <v>3</v>
+        <v>11.5</v>
       </c>
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
@@ -4065,7 +4085,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>225.16666666666652</v>
+        <v>233.66666666666652</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -4225,7 +4245,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>225.16666666666652</v>
+        <v>233.66666666666652</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4386,7 +4406,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>225.16666666666652</v>
+        <v>233.66666666666652</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4547,7 +4567,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>225.16666666666652</v>
+        <v>233.66666666666652</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
+++ b/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="176">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -1217,7 +1217,7 @@
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A123" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B149" sqref="B149"/>
+      <selection activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4001,19 +4001,25 @@
       </c>
       <c r="H148" s="11"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A149" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="B149" s="12"/>
-      <c r="C149" s="12"/>
+      <c r="B149" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="C149" s="12">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="D149" s="13"/>
       <c r="E149" s="9">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.99999999999999911</v>
       </c>
       <c r="F149" s="11"/>
-      <c r="G149" s="11"/>
+      <c r="G149" s="11" t="s">
+        <v>175</v>
+      </c>
       <c r="H149" s="11"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -4070,7 +4076,7 @@
       </c>
       <c r="E153" s="27">
         <f>SUM(E146:E152)</f>
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
@@ -4085,7 +4091,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>233.66666666666652</v>
+        <v>234.66666666666652</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -4245,7 +4251,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>233.66666666666652</v>
+        <v>234.66666666666652</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4406,7 +4412,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>233.66666666666652</v>
+        <v>234.66666666666652</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4567,7 +4573,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>233.66666666666652</v>
+        <v>234.66666666666652</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
+++ b/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="177">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -548,6 +548,9 @@
   </si>
   <si>
     <t>Feedbacks durchgearbeitet</t>
+  </si>
+  <si>
+    <t>Vortrag über Förderung in der Games Branche besucht</t>
   </si>
 </sst>
 </file>
@@ -1216,8 +1219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B150" sqref="B150"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F151" sqref="F151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3955,7 +3958,9 @@
       <c r="G146" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="H146" s="11"/>
+      <c r="H146" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="28" t="s">
@@ -3976,7 +3981,9 @@
       <c r="G147" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="H147" s="11"/>
+      <c r="H147" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="148" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A148" s="28" t="s">
@@ -3999,7 +4006,9 @@
       <c r="G148" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="H148" s="11"/>
+      <c r="H148" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="149" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A149" s="28" t="s">
@@ -4020,7 +4029,9 @@
       <c r="G149" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="H149" s="11"/>
+      <c r="H149" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="28" t="s">
@@ -4035,7 +4046,9 @@
       </c>
       <c r="F150" s="11"/>
       <c r="G150" s="11"/>
-      <c r="H150" s="11"/>
+      <c r="H150" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="28" t="s">
@@ -4123,20 +4136,28 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A156" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="B156" s="12"/>
-      <c r="C156" s="12"/>
-      <c r="D156" s="23"/>
+      <c r="B156" s="12">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="C156" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="D156" s="23">
+        <v>6</v>
+      </c>
       <c r="E156" s="9">
         <f t="shared" ref="E156:E161" si="15">(B156-C156)*-24-D156</f>
-        <v>0</v>
+        <v>3.6666666666666661</v>
       </c>
       <c r="F156" s="11"/>
       <c r="G156" s="11"/>
-      <c r="H156" s="11"/>
+      <c r="H156" s="11" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="28" t="s">
@@ -4236,7 +4257,7 @@
       </c>
       <c r="E163" s="27">
         <f>SUM(E156:E162)</f>
-        <v>0</v>
+        <v>3.6666666666666661</v>
       </c>
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
@@ -4251,7 +4272,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>234.66666666666652</v>
+        <v>238.33333333333317</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4412,7 +4433,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>234.66666666666652</v>
+        <v>238.33333333333317</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4573,7 +4594,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>234.66666666666652</v>
+        <v>238.33333333333317</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
+++ b/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="179">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -551,6 +551,12 @@
   </si>
   <si>
     <t>Vortrag über Förderung in der Games Branche besucht</t>
+  </si>
+  <si>
+    <t>Animationsliste, Feedback überarbeitet, Meeting</t>
+  </si>
+  <si>
+    <t>Meeting, Feedbacks überarbeitet, Tutorial Level</t>
   </si>
 </sst>
 </file>
@@ -1219,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F151" sqref="F151"/>
+    <sheetView tabSelected="1" topLeftCell="A141" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K158" sqref="K158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4154,24 +4160,34 @@
         <v>3.6666666666666661</v>
       </c>
       <c r="F156" s="11"/>
-      <c r="G156" s="11"/>
+      <c r="G156" s="11" t="s">
+        <v>177</v>
+      </c>
       <c r="H156" s="11" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A157" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="B157" s="12"/>
-      <c r="C157" s="12"/>
-      <c r="D157" s="13"/>
+      <c r="B157" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="C157" s="12">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D157" s="13">
+        <v>2</v>
+      </c>
       <c r="E157" s="9">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="F157" s="11"/>
-      <c r="G157" s="11"/>
+      <c r="G157" s="11" t="s">
+        <v>178</v>
+      </c>
       <c r="H157" s="11"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -4257,7 +4273,7 @@
       </c>
       <c r="E163" s="27">
         <f>SUM(E156:E162)</f>
-        <v>3.6666666666666661</v>
+        <v>10.166666666666666</v>
       </c>
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
@@ -4272,7 +4288,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>238.33333333333317</v>
+        <v>244.83333333333317</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4433,7 +4449,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>238.33333333333317</v>
+        <v>244.83333333333317</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4594,7 +4610,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>238.33333333333317</v>
+        <v>244.83333333333317</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
+++ b/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="182">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -557,6 +557,15 @@
   </si>
   <si>
     <t>Meeting, Feedbacks überarbeitet, Tutorial Level</t>
+  </si>
+  <si>
+    <t>Tutorial Level in Unity</t>
+  </si>
+  <si>
+    <t>Meeting, Environmental Storytelling</t>
+  </si>
+  <si>
+    <t>Environmental Storytelling</t>
   </si>
 </sst>
 </file>
@@ -1225,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K158" sqref="K158"/>
+    <sheetView tabSelected="1" topLeftCell="A150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C169" sqref="C169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4194,16 +4203,24 @@
       <c r="A158" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="B158" s="12"/>
-      <c r="C158" s="12"/>
+      <c r="B158" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="C158" s="12">
+        <v>0.5</v>
+      </c>
       <c r="D158" s="13"/>
       <c r="E158" s="9">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F158" s="11"/>
-      <c r="G158" s="11"/>
-      <c r="H158" s="11"/>
+      <c r="G158" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="H158" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="28" t="s">
@@ -4218,7 +4235,9 @@
       </c>
       <c r="F159" s="11"/>
       <c r="G159" s="11"/>
-      <c r="H159" s="11"/>
+      <c r="H159" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="28" t="s">
@@ -4233,7 +4252,9 @@
       </c>
       <c r="F160" s="11"/>
       <c r="G160" s="11"/>
-      <c r="H160" s="11"/>
+      <c r="H160" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="28" t="s">
@@ -4248,7 +4269,9 @@
       </c>
       <c r="F161" s="11"/>
       <c r="G161" s="11"/>
-      <c r="H161" s="11"/>
+      <c r="H161" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="28" t="s">
@@ -4273,7 +4296,7 @@
       </c>
       <c r="E163" s="27">
         <f>SUM(E156:E162)</f>
-        <v>10.166666666666666</v>
+        <v>13.166666666666666</v>
       </c>
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
@@ -4288,7 +4311,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>244.83333333333317</v>
+        <v>247.83333333333317</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4320,19 +4343,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A166" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="B166" s="12"/>
-      <c r="C166" s="12"/>
-      <c r="D166" s="23"/>
+      <c r="B166" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C166" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="D166" s="23">
+        <v>1.5</v>
+      </c>
       <c r="E166" s="9">
         <f t="shared" ref="E166:E172" si="16">(B166-C166)*-24-D166</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="F166" s="11"/>
-      <c r="G166" s="11"/>
+      <c r="G166" s="11" t="s">
+        <v>180</v>
+      </c>
       <c r="H166" s="11"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -4348,21 +4379,31 @@
       </c>
       <c r="F167" s="11"/>
       <c r="G167" s="11"/>
-      <c r="H167" s="11"/>
+      <c r="H167" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="B168" s="12"/>
-      <c r="C168" s="12"/>
-      <c r="D168" s="13"/>
+      <c r="B168" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C168" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D168" s="13">
+        <v>1</v>
+      </c>
       <c r="E168" s="9">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>4.9999999999999982</v>
       </c>
       <c r="F168" s="11"/>
-      <c r="G168" s="11"/>
+      <c r="G168" s="11" t="s">
+        <v>181</v>
+      </c>
       <c r="H168" s="11"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -4434,7 +4475,7 @@
       </c>
       <c r="E173" s="27">
         <f>SUM(E166:E172)</f>
-        <v>0</v>
+        <v>11.499999999999998</v>
       </c>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
@@ -4449,7 +4490,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>244.83333333333317</v>
+        <v>259.33333333333314</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4610,7 +4651,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>244.83333333333317</v>
+        <v>259.33333333333314</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
+++ b/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="183">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -566,6 +566,9 @@
   </si>
   <si>
     <t>Environmental Storytelling</t>
+  </si>
+  <si>
+    <t>Environmental Storytelling; Animationen implementiert</t>
   </si>
 </sst>
 </file>
@@ -1235,7 +1238,7 @@
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A150" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C169" sqref="C169"/>
+      <selection activeCell="G170" sqref="G170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4406,19 +4409,27 @@
       </c>
       <c r="H168" s="11"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A169" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="B169" s="12"/>
-      <c r="C169" s="12"/>
-      <c r="D169" s="13"/>
+      <c r="B169" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C169" s="12">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D169" s="13">
+        <v>1.5</v>
+      </c>
       <c r="E169" s="9">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F169" s="11"/>
-      <c r="G169" s="11"/>
+      <c r="G169" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="H169" s="11"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -4475,7 +4486,7 @@
       </c>
       <c r="E173" s="27">
         <f>SUM(E166:E172)</f>
-        <v>11.499999999999998</v>
+        <v>18.5</v>
       </c>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
@@ -4490,7 +4501,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>259.33333333333314</v>
+        <v>266.33333333333314</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4651,7 +4662,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>259.33333333333314</v>
+        <v>266.33333333333314</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
+++ b/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="184">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -569,6 +569,9 @@
   </si>
   <si>
     <t>Environmental Storytelling; Animationen implementiert</t>
+  </si>
+  <si>
+    <t>Camera Coding</t>
   </si>
 </sst>
 </file>
@@ -1238,7 +1241,7 @@
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A150" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G170" sqref="G170"/>
+      <selection activeCell="D171" sqref="D171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4436,15 +4439,23 @@
       <c r="A170" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="B170" s="12"/>
-      <c r="C170" s="12"/>
-      <c r="D170" s="13"/>
+      <c r="B170" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C170" s="12">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D170" s="13">
+        <v>2.5</v>
+      </c>
       <c r="E170" s="9">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F170" s="11"/>
-      <c r="G170" s="11"/>
+      <c r="G170" s="11" t="s">
+        <v>183</v>
+      </c>
       <c r="H170" s="11"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
@@ -4486,7 +4497,7 @@
       </c>
       <c r="E173" s="27">
         <f>SUM(E166:E172)</f>
-        <v>18.5</v>
+        <v>24.5</v>
       </c>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
@@ -4501,7 +4512,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>266.33333333333314</v>
+        <v>272.33333333333314</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4662,7 +4673,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>266.33333333333314</v>
+        <v>272.33333333333314</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
+++ b/_WIP/Tobias/Tobias-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="185">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -572,6 +572,9 @@
   </si>
   <si>
     <t>Camera Coding</t>
+  </si>
+  <si>
+    <t>Animationseinbau; Meetings</t>
   </si>
 </sst>
 </file>
@@ -1241,7 +1244,7 @@
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A150" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D171" sqref="D171"/>
+      <selection activeCell="F175" sqref="F175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4544,19 +4547,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A176" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="B176" s="12"/>
-      <c r="C176" s="12"/>
-      <c r="D176" s="23"/>
+      <c r="B176" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C176" s="12">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D176" s="23">
+        <v>1.5</v>
+      </c>
       <c r="E176" s="9">
         <f t="shared" ref="E176:E182" si="17">(B176-C176)*-24-D176</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F176" s="11"/>
-      <c r="G176" s="11"/>
+      <c r="G176" s="11" t="s">
+        <v>184</v>
+      </c>
       <c r="H176" s="11"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
@@ -4658,7 +4669,7 @@
       </c>
       <c r="E183" s="27">
         <f>SUM(E176:E182)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
@@ -4673,7 +4684,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>272.33333333333314</v>
+        <v>279.33333333333314</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
